--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_22_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_22_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>718843.617789817</v>
+        <v>714660.2243232932</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33930126.82344953</v>
+        <v>33930126.82344952</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6468565.071246423</v>
+        <v>6468565.071246426</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4489406.640708721</v>
+        <v>4489406.64070872</v>
       </c>
     </row>
     <row r="11">
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.262548922260275</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>3.262548922260275</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>2.066753047649844</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>2.066753047649844</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.262548922260275</v>
+        <v>3.262548922260276</v>
       </c>
     </row>
     <row r="9">
@@ -1214,22 +1214,22 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>2.873653090726851</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="E9" t="n">
-        <v>3.262548922260275</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="F9" t="n">
-        <v>3.262548922260275</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="G9" t="n">
-        <v>3.262548922260275</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>2.873653090726851</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.262548922260275</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>3.262548922260275</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
         <v>2.873653090726851</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>3.262548922260275</v>
       </c>
     </row>
     <row r="11">
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>32.52127443762018</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735101</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>115.5863779850439</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1466,7 +1466,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H12" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306972</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>49.60664915306892</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>70.23349059760764</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U13" t="n">
         <v>275.6027656317444</v>
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>384.1695139375266</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>183.6129293777668</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1770,7 +1770,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>17.87227518453525</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1779,13 +1779,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.0937685836068</v>
+        <v>124.9554984777206</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>275.6027656317444</v>
@@ -1830,10 +1830,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>377.6292227526611</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1900,16 +1900,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>217.0028616587198</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -1940,7 +1940,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H18" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306972</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2016,13 +2016,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>131.0206200144773</v>
+        <v>55.96684102370052</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>239.8247518556274</v>
@@ -2061,13 +2061,13 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>181.8996817528551</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>267.0243359415286</v>
+        <v>91.66753013443754</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.06170608735101</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>405.8179957063816</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2177,7 +2177,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H21" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306972</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0937685836068</v>
+        <v>81.30766987963975</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2295,13 +2295,13 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>182.8434234463158</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2320,13 +2320,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>360.16449722417</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>416.1420190883363</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2380,13 +2380,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>130.6052614420252</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>12.47366486911641</v>
       </c>
       <c r="T25" t="n">
         <v>239.625141907721</v>
@@ -2541,7 +2541,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>124.8062405470138</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>371.053163673017</v>
       </c>
       <c r="E26" t="n">
-        <v>7.14383150292921</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>395.4035163750517</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>265.9577299060851</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2718,22 +2718,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>73.01892385560498</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.0470513617563</v>
+        <v>104.8949370488989</v>
       </c>
       <c r="H28" t="n">
         <v>130.6052614420252</v>
       </c>
       <c r="I28" t="n">
-        <v>61.05941942646665</v>
+        <v>61.05941942646666</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.1681193445597</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>239.625141907721</v>
@@ -2772,7 +2772,7 @@
         <v>275.6002174196435</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2781,7 +2781,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -2797,19 +2797,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>67.91121967300778</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
         <v>395.4035163750517</v>
       </c>
       <c r="H29" t="n">
-        <v>265.9577299060851</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>37.68843280209084</v>
       </c>
       <c r="T29" t="n">
         <v>209.1976310043347</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4716527211199</v>
+        <v>56.50350779144961</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2958,19 +2958,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>96.73927565383903</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>163.0470513617563</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>130.6052614420252</v>
       </c>
       <c r="I31" t="n">
-        <v>61.05941942646665</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,10 +3006,10 @@
         <v>239.625141907721</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6002174196435</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>28.79960948081976</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3037,16 +3037,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>265.9577299060851</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>256.4716527211199</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3094,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>154.7134116652626</v>
+        <v>239.0680803907777</v>
       </c>
     </row>
     <row r="33">
@@ -3201,13 +3201,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.0470513617563</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>130.6052614420252</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>61.05941942646665</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>27.83779078380251</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>95.45101950358999</v>
       </c>
     </row>
     <row r="35">
@@ -3265,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>366.5882228521855</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3325,13 +3325,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>325.3336124438064</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -3429,19 +3429,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>39.53813074506343</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>9.006424452103332</v>
+        <v>163.0470513617563</v>
       </c>
       <c r="H37" t="n">
-        <v>130.6052614420252</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3508,7 +3508,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
@@ -3517,10 +3517,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>361.0283285165964</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>265.9577299060851</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>37.68843280209084</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.1976310043347</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.4716527211199</v>
       </c>
       <c r="V38" t="n">
-        <v>294.5898255095838</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3663,13 +3663,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>149.3148057202041</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
@@ -3678,10 +3678,10 @@
         <v>163.0470513617563</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>130.6052614420252</v>
       </c>
       <c r="I40" t="n">
-        <v>61.05941942646665</v>
+        <v>61.05941942646666</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.1681193445597</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>239.625141907721</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>275.6002174196435</v>
@@ -3726,7 +3726,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>140.3249116665117</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3742,10 +3742,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>421.5454027563626</v>
+        <v>305.8936798744579</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>395.4035163750517</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>37.68843280209084</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3799,10 +3799,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>141.314677974448</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
@@ -3912,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.0470513617563</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>130.6052614420252</v>
       </c>
       <c r="I43" t="n">
-        <v>61.05941942646665</v>
+        <v>61.05941942646666</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>142.1681193445597</v>
       </c>
       <c r="T43" t="n">
         <v>239.625141907721</v>
@@ -3957,10 +3957,10 @@
         <v>275.6002174196435</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>68.98590671215383</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>244.1893270007532</v>
       </c>
       <c r="H44" t="n">
         <v>265.9577299060851</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>37.68843280209084</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4716527211199</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>94.2067673180849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
@@ -4146,16 +4146,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>163.0470513617563</v>
       </c>
       <c r="H46" t="n">
-        <v>60.76420014191719</v>
+        <v>130.6052614420252</v>
       </c>
       <c r="I46" t="n">
-        <v>61.05941942646665</v>
+        <v>42.1538826722165</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>142.1681193445597</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>239.625141907721</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6002174196435</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.556507875659888</v>
+        <v>5.644137216720338</v>
       </c>
       <c r="C8" t="n">
-        <v>0.261003913780822</v>
+        <v>5.644137216720338</v>
       </c>
       <c r="D8" t="n">
-        <v>0.261003913780822</v>
+        <v>2.348633254841271</v>
       </c>
       <c r="E8" t="n">
-        <v>0.261003913780822</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="F8" t="n">
-        <v>0.261003913780822</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="G8" t="n">
-        <v>0.261003913780822</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="H8" t="n">
-        <v>0.261003913780822</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="I8" t="n">
-        <v>0.261003913780822</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="J8" t="n">
         <v>1.160310701713749</v>
@@ -4810,16 +4810,16 @@
         <v>2.50813845558963</v>
       </c>
       <c r="L8" t="n">
-        <v>4.180237967355345</v>
+        <v>4.180237967355347</v>
       </c>
       <c r="M8" t="n">
-        <v>6.040770853278583</v>
+        <v>6.040770853278586</v>
       </c>
       <c r="N8" t="n">
-        <v>7.931409106423306</v>
+        <v>7.931409106423309</v>
       </c>
       <c r="O8" t="n">
-        <v>9.716685196678936</v>
+        <v>9.71668519667894</v>
       </c>
       <c r="P8" t="n">
         <v>11.24037703589</v>
@@ -4828,28 +4828,28 @@
         <v>12.38460615143387</v>
       </c>
       <c r="R8" t="n">
-        <v>13.0501956890411</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="S8" t="n">
-        <v>13.0501956890411</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="T8" t="n">
-        <v>13.0501956890411</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="U8" t="n">
-        <v>13.0501956890411</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="V8" t="n">
-        <v>13.0501956890411</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="W8" t="n">
         <v>12.23514514047847</v>
       </c>
       <c r="X8" t="n">
-        <v>10.14751579941802</v>
+        <v>8.939641178599405</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.852011837538955</v>
+        <v>5.644137216720338</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13.0501956890411</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="C9" t="n">
-        <v>13.0501956890411</v>
+        <v>10.14751579941802</v>
       </c>
       <c r="D9" t="n">
-        <v>13.0501956890411</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="E9" t="n">
-        <v>9.754691727162037</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="F9" t="n">
-        <v>6.45918776528297</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="G9" t="n">
-        <v>3.163683803403904</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="H9" t="n">
-        <v>0.261003913780822</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4561956203818615</v>
+        <v>3.490927346818495</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9918165824064463</v>
+        <v>4.02654830884308</v>
       </c>
       <c r="K9" t="n">
-        <v>4.221740015444118</v>
+        <v>4.942009845394732</v>
       </c>
       <c r="L9" t="n">
-        <v>5.452691026308381</v>
+        <v>6.172960856258994</v>
       </c>
       <c r="M9" t="n">
-        <v>6.889152795778704</v>
+        <v>7.609422625729319</v>
       </c>
       <c r="N9" t="n">
-        <v>8.363633433961512</v>
+        <v>9.083903263912127</v>
       </c>
       <c r="O9" t="n">
-        <v>9.712495154724134</v>
+        <v>10.43276498467475</v>
       </c>
       <c r="P9" t="n">
-        <v>10.79507560338605</v>
+        <v>11.51534543333667</v>
       </c>
       <c r="Q9" t="n">
-        <v>11.5187519637576</v>
+        <v>12.23902179370821</v>
       </c>
       <c r="R9" t="n">
-        <v>13.0501956890411</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="S9" t="n">
-        <v>13.0501956890411</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="T9" t="n">
-        <v>13.0501956890411</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="U9" t="n">
-        <v>13.0501956890411</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="V9" t="n">
-        <v>13.0501956890411</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="W9" t="n">
-        <v>13.0501956890411</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="X9" t="n">
-        <v>13.0501956890411</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="Y9" t="n">
-        <v>13.0501956890411</v>
+        <v>13.05019568904111</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.556507875659888</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="C10" t="n">
-        <v>0.261003913780822</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="D10" t="n">
-        <v>0.261003913780822</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="E10" t="n">
-        <v>0.261003913780822</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="F10" t="n">
-        <v>0.261003913780822</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="G10" t="n">
-        <v>0.261003913780822</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="H10" t="n">
-        <v>0.261003913780822</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="I10" t="n">
-        <v>0.261003913780822</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="J10" t="n">
-        <v>3.490927346818494</v>
+        <v>0.5970352923692027</v>
       </c>
       <c r="K10" t="n">
-        <v>4.043130126599838</v>
+        <v>1.149238072150546</v>
       </c>
       <c r="L10" t="n">
-        <v>4.749759567956964</v>
+        <v>1.855867513507673</v>
       </c>
       <c r="M10" t="n">
-        <v>5.494801237109522</v>
+        <v>2.600909182660231</v>
       </c>
       <c r="N10" t="n">
-        <v>6.222127480619644</v>
+        <v>3.360425389928086</v>
       </c>
       <c r="O10" t="n">
-        <v>6.893930987665052</v>
+        <v>6.590348822965759</v>
       </c>
       <c r="P10" t="n">
-        <v>9.820272256003429</v>
+        <v>9.820272256003433</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0501956890411</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="R10" t="n">
-        <v>13.0501956890411</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="S10" t="n">
-        <v>13.0501956890411</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="T10" t="n">
-        <v>13.0501956890411</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="U10" t="n">
-        <v>13.0501956890411</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="V10" t="n">
-        <v>13.0501956890411</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="W10" t="n">
-        <v>13.0501956890411</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="X10" t="n">
-        <v>10.14751579941802</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="Y10" t="n">
-        <v>6.852011837538955</v>
+        <v>3.556507875659889</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>80.05632370816704</v>
+        <v>919.1237692072363</v>
       </c>
       <c r="C11" t="n">
-        <v>80.05632370816704</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="D11" t="n">
-        <v>80.05632370816704</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="E11" t="n">
-        <v>80.05632370816704</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="F11" t="n">
-        <v>80.05632370816704</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G11" t="n">
-        <v>80.05632370816704</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M11" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N11" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O11" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P11" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q11" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R11" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U11" t="n">
-        <v>2101.256885969251</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V11" t="n">
-        <v>1738.639935903077</v>
+        <v>1732.26534749655</v>
       </c>
       <c r="W11" t="n">
-        <v>1333.784481314111</v>
+        <v>1327.409892907583</v>
       </c>
       <c r="X11" t="n">
-        <v>914.6420178934214</v>
+        <v>1327.409892907583</v>
       </c>
       <c r="Y11" t="n">
-        <v>506.3558941930748</v>
+        <v>919.1237692072363</v>
       </c>
     </row>
     <row r="12">
@@ -5099,37 +5099,37 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D12" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E12" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043167</v>
       </c>
       <c r="J12" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668988</v>
       </c>
       <c r="K12" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210689</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960912</v>
       </c>
       <c r="M12" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987884</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>858.3289888817353</v>
+        <v>757.7926570868869</v>
       </c>
       <c r="C13" t="n">
-        <v>858.3289888817353</v>
+        <v>585.2309455701119</v>
       </c>
       <c r="D13" t="n">
-        <v>692.450996083258</v>
+        <v>419.3529527716346</v>
       </c>
       <c r="E13" t="n">
-        <v>522.6929923339953</v>
+        <v>419.3529527716346</v>
       </c>
       <c r="F13" t="n">
-        <v>345.9859382957516</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="G13" t="n">
-        <v>181.24475790827</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H13" t="n">
         <v>110.3018381127067</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J13" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K13" t="n">
-        <v>564.2504555545214</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L13" t="n">
-        <v>1106.33113894078</v>
+        <v>1019.75145377609</v>
       </c>
       <c r="M13" t="n">
-        <v>1690.512214359095</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N13" t="n">
-        <v>1818.011126162985</v>
+        <v>1539.854607180194</v>
       </c>
       <c r="O13" t="n">
-        <v>1935.777007510746</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P13" t="n">
-        <v>2105.896438675982</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q13" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R13" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S13" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T13" t="n">
-        <v>2360.327577447737</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U13" t="n">
-        <v>2081.94094549648</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V13" t="n">
-        <v>1794.98543736691</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W13" t="n">
-        <v>1522.959032953202</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.567278286614</v>
+        <v>1035.32005419002</v>
       </c>
       <c r="Y13" t="n">
-        <v>1050.147607600722</v>
+        <v>807.9003835041283</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1308.351417301975</v>
+        <v>232.6741569810424</v>
       </c>
       <c r="C14" t="n">
-        <v>1308.351417301975</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="D14" t="n">
-        <v>1308.351417301975</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="E14" t="n">
-        <v>874.5766724602698</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="F14" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G14" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867024</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M14" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N14" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O14" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P14" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q14" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R14" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U14" t="n">
-        <v>2101.256885969251</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V14" t="n">
-        <v>2101.256885969251</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W14" t="n">
-        <v>1696.401431380284</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="X14" t="n">
-        <v>1696.401431380284</v>
+        <v>1067.259851166297</v>
       </c>
       <c r="Y14" t="n">
-        <v>1696.401431380284</v>
+        <v>658.9737274659502</v>
       </c>
     </row>
     <row r="15">
@@ -5339,28 +5339,28 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E15" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043098</v>
       </c>
       <c r="J15" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K15" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210685</v>
       </c>
       <c r="L15" t="n">
         <v>551.5786779960906</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>944.4666516418563</v>
+        <v>858.3289888817344</v>
       </c>
       <c r="C16" t="n">
-        <v>771.9049401250812</v>
+        <v>685.7672773649593</v>
       </c>
       <c r="D16" t="n">
-        <v>753.852136908379</v>
+        <v>519.889284566482</v>
       </c>
       <c r="E16" t="n">
-        <v>584.0941331591162</v>
+        <v>350.1312808172193</v>
       </c>
       <c r="F16" t="n">
-        <v>407.3870791208724</v>
+        <v>173.4242267789755</v>
       </c>
       <c r="G16" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H16" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J16" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K16" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L16" t="n">
-        <v>688.1212571728194</v>
+        <v>744.9929992049549</v>
       </c>
       <c r="M16" t="n">
-        <v>1272.302332591134</v>
+        <v>1329.174074623269</v>
       </c>
       <c r="N16" t="n">
-        <v>1842.060047552668</v>
+        <v>1898.931789584804</v>
       </c>
       <c r="O16" t="n">
-        <v>2005.127382498298</v>
+        <v>2173.320157362629</v>
       </c>
       <c r="P16" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q16" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S16" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T16" t="n">
-        <v>1973.653814855378</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="U16" t="n">
-        <v>1695.267182904121</v>
+        <v>2081.940945496479</v>
       </c>
       <c r="V16" t="n">
-        <v>1408.311674774552</v>
+        <v>1794.985437366909</v>
       </c>
       <c r="W16" t="n">
-        <v>1136.285270360843</v>
+        <v>1522.959032953201</v>
       </c>
       <c r="X16" t="n">
-        <v>1136.285270360843</v>
+        <v>1277.567278286613</v>
       </c>
       <c r="Y16" t="n">
-        <v>1136.285270360843</v>
+        <v>1050.147607600722</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>908.8487259814518</v>
+        <v>1525.741883262482</v>
       </c>
       <c r="C17" t="n">
-        <v>908.8487259814518</v>
+        <v>1525.741883262482</v>
       </c>
       <c r="D17" t="n">
-        <v>908.8487259814518</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="E17" t="n">
-        <v>475.073981139747</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="F17" t="n">
-        <v>47.20655154895474</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G17" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001358</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435809</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K17" t="n">
         <v>512.3249274228019</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867026</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M17" t="n">
         <v>1131.58869045549</v>
@@ -5530,37 +5530,37 @@
         <v>1463.013992431967</v>
       </c>
       <c r="O17" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P17" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q17" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R17" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="U17" t="n">
-        <v>2141.132767691454</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="V17" t="n">
-        <v>2141.132767691454</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="W17" t="n">
-        <v>1736.277313102488</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="X17" t="n">
-        <v>1317.134849681798</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="Y17" t="n">
-        <v>908.8487259814518</v>
+        <v>1952.041453747389</v>
       </c>
     </row>
     <row r="18">
@@ -5573,7 +5573,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C18" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D18" t="n">
         <v>341.0245550495863</v>
@@ -5585,25 +5585,25 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G18" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043082</v>
       </c>
       <c r="J18" t="n">
-        <v>175.3166270668981</v>
+        <v>175.3166270668979</v>
       </c>
       <c r="K18" t="n">
-        <v>335.7952991210684</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960907</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M18" t="n">
-        <v>803.3877032987881</v>
+        <v>803.3877032987876</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1092.291841223631</v>
+        <v>616.0817647851411</v>
       </c>
       <c r="C19" t="n">
-        <v>919.7301297068562</v>
+        <v>616.0817647851411</v>
       </c>
       <c r="D19" t="n">
-        <v>753.852136908379</v>
+        <v>450.2037719866638</v>
       </c>
       <c r="E19" t="n">
-        <v>584.0941331591162</v>
+        <v>280.4457682374011</v>
       </c>
       <c r="F19" t="n">
-        <v>407.3870791208724</v>
+        <v>103.7387141991573</v>
       </c>
       <c r="G19" t="n">
-        <v>242.6458987333908</v>
+        <v>103.7387141991573</v>
       </c>
       <c r="H19" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J19" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K19" t="n">
-        <v>202.912315818696</v>
+        <v>289.4920009833859</v>
       </c>
       <c r="L19" t="n">
-        <v>744.992999204955</v>
+        <v>413.3628026016838</v>
       </c>
       <c r="M19" t="n">
-        <v>875.5973915434845</v>
+        <v>550.4276429928783</v>
       </c>
       <c r="N19" t="n">
-        <v>1120.185357954413</v>
+        <v>1120.185357954412</v>
       </c>
       <c r="O19" t="n">
-        <v>1657.620488527957</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P19" t="n">
-        <v>2105.896438675982</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R19" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S19" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T19" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U19" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V19" t="n">
-        <v>1695.267182904121</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W19" t="n">
-        <v>1511.53013062851</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X19" t="n">
-        <v>1511.53013062851</v>
+        <v>1035.32005419002</v>
       </c>
       <c r="Y19" t="n">
-        <v>1284.110459942618</v>
+        <v>807.9003835041283</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1182.938005412413</v>
+        <v>1003.577230747563</v>
       </c>
       <c r="C20" t="n">
-        <v>744.7955325958366</v>
+        <v>1003.577230747563</v>
       </c>
       <c r="D20" t="n">
-        <v>744.7955325958366</v>
+        <v>567.6674459220071</v>
       </c>
       <c r="E20" t="n">
-        <v>744.7955325958366</v>
+        <v>567.6674459220071</v>
       </c>
       <c r="F20" t="n">
-        <v>316.9281030050443</v>
+        <v>139.8000163312149</v>
       </c>
       <c r="G20" t="n">
-        <v>316.9281030050443</v>
+        <v>139.8000163312149</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001356</v>
       </c>
       <c r="J20" t="n">
         <v>276.0532770435808</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M20" t="n">
         <v>1131.58869045549</v>
@@ -5767,37 +5767,37 @@
         <v>1463.013992431967</v>
       </c>
       <c r="O20" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P20" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q20" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R20" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T20" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U20" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V20" t="n">
-        <v>1997.710627381563</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W20" t="n">
-        <v>1592.855172792597</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="X20" t="n">
-        <v>1182.938005412413</v>
+        <v>1429.87680123247</v>
       </c>
       <c r="Y20" t="n">
-        <v>1182.938005412413</v>
+        <v>1429.87680123247</v>
       </c>
     </row>
     <row r="21">
@@ -5810,43 +5810,43 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D21" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E21" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F21" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G21" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043082</v>
       </c>
       <c r="J21" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668979</v>
       </c>
       <c r="K21" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L21" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M21" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987876</v>
       </c>
       <c r="N21" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O21" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P21" t="n">
         <v>1488.088567599445</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1029.196554659879</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="C22" t="n">
-        <v>856.6348431431041</v>
+        <v>299.0935147726011</v>
       </c>
       <c r="D22" t="n">
-        <v>690.7568503446269</v>
+        <v>299.0935147726011</v>
       </c>
       <c r="E22" t="n">
-        <v>520.9988465953642</v>
+        <v>129.3355110233383</v>
       </c>
       <c r="F22" t="n">
-        <v>344.2917925571204</v>
+        <v>129.3355110233383</v>
       </c>
       <c r="G22" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H22" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J22" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K22" t="n">
-        <v>564.2504555545214</v>
+        <v>393.4422361027639</v>
       </c>
       <c r="L22" t="n">
-        <v>1106.33113894078</v>
+        <v>935.5229194890228</v>
       </c>
       <c r="M22" t="n">
-        <v>1690.512214359095</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N22" t="n">
-        <v>1887.361501150537</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O22" t="n">
-        <v>2005.127382498298</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P22" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R22" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S22" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T22" t="n">
         <v>1973.653814855378</v>
       </c>
       <c r="U22" t="n">
-        <v>1973.653814855378</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V22" t="n">
-        <v>1686.698306725809</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W22" t="n">
-        <v>1502.007980012359</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X22" t="n">
-        <v>1256.616225345771</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y22" t="n">
-        <v>1029.196554659879</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
     <row r="23">
@@ -5965,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1283.314522240155</v>
+        <v>470.1729439508408</v>
       </c>
       <c r="C23" t="n">
-        <v>919.5119997914989</v>
+        <v>470.1729439508408</v>
       </c>
       <c r="D23" t="n">
-        <v>483.6022149659433</v>
+        <v>49.8274701242385</v>
       </c>
       <c r="E23" t="n">
-        <v>49.82747012423852</v>
+        <v>49.8274701242385</v>
       </c>
       <c r="F23" t="n">
-        <v>49.82747012423852</v>
+        <v>49.8274701242385</v>
       </c>
       <c r="G23" t="n">
-        <v>49.82747012423852</v>
+        <v>49.8274701242385</v>
       </c>
       <c r="H23" t="n">
-        <v>49.82747012423852</v>
+        <v>49.8274701242385</v>
       </c>
       <c r="I23" t="n">
-        <v>125.0024357192125</v>
+        <v>125.0024357192122</v>
       </c>
       <c r="J23" t="n">
-        <v>291.400250675654</v>
+        <v>291.4002506756536</v>
       </c>
       <c r="K23" t="n">
-        <v>540.7874411116302</v>
+        <v>540.7874411116298</v>
       </c>
       <c r="L23" t="n">
-        <v>850.1743031713206</v>
+        <v>850.1743031713202</v>
       </c>
       <c r="M23" t="n">
-        <v>1194.426799679019</v>
+        <v>1194.426799679018</v>
       </c>
       <c r="N23" t="n">
-        <v>1544.249661485116</v>
+        <v>1544.249661485115</v>
       </c>
       <c r="O23" t="n">
-        <v>1874.577470080142</v>
+        <v>1874.577470080141</v>
       </c>
       <c r="P23" t="n">
         <v>2156.504612312045</v>
@@ -6013,28 +6013,28 @@
         <v>2368.220154984278</v>
       </c>
       <c r="R23" t="n">
-        <v>2491.373506211926</v>
+        <v>2491.373506211925</v>
       </c>
       <c r="S23" t="n">
-        <v>2491.373506211926</v>
+        <v>2491.373506211925</v>
       </c>
       <c r="T23" t="n">
-        <v>2491.373506211926</v>
+        <v>2491.373506211925</v>
       </c>
       <c r="U23" t="n">
-        <v>2491.373506211926</v>
+        <v>2491.373506211925</v>
       </c>
       <c r="V23" t="n">
-        <v>2128.756556145752</v>
+        <v>2128.756556145751</v>
       </c>
       <c r="W23" t="n">
-        <v>2128.756556145752</v>
+        <v>1723.901101556785</v>
       </c>
       <c r="X23" t="n">
-        <v>1709.614092725063</v>
+        <v>1304.758638136095</v>
       </c>
       <c r="Y23" t="n">
-        <v>1709.614092725063</v>
+        <v>896.4725144357486</v>
       </c>
     </row>
     <row r="24">
@@ -6056,31 +6056,31 @@
         <v>248.9251582471015</v>
       </c>
       <c r="F24" t="n">
-        <v>165.5413198632632</v>
+        <v>165.5413198632631</v>
       </c>
       <c r="G24" t="n">
-        <v>81.22650643262236</v>
+        <v>81.22650643262234</v>
       </c>
       <c r="H24" t="n">
-        <v>49.82747012423852</v>
+        <v>49.8274701242385</v>
       </c>
       <c r="I24" t="n">
-        <v>85.94359191031604</v>
+        <v>85.94359191031602</v>
       </c>
       <c r="J24" t="n">
-        <v>185.04899055922</v>
+        <v>185.0489905592199</v>
       </c>
       <c r="K24" t="n">
-        <v>262.1087537749916</v>
+        <v>354.4359021258462</v>
       </c>
       <c r="L24" t="n">
-        <v>489.8703600195479</v>
+        <v>582.1975083704025</v>
       </c>
       <c r="M24" t="n">
-        <v>755.6574116860063</v>
+        <v>847.9845600368608</v>
       </c>
       <c r="N24" t="n">
-        <v>1028.47905573602</v>
+        <v>1028.479055736021</v>
       </c>
       <c r="O24" t="n">
         <v>1278.057560007275</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>866.6567387340936</v>
+        <v>734.7322322269974</v>
       </c>
       <c r="C25" t="n">
-        <v>694.0950272173185</v>
+        <v>562.1705207102224</v>
       </c>
       <c r="D25" t="n">
-        <v>528.2170344188412</v>
+        <v>396.292527911745</v>
       </c>
       <c r="E25" t="n">
-        <v>358.4590306695784</v>
+        <v>226.5345241624823</v>
       </c>
       <c r="F25" t="n">
-        <v>181.7519766313346</v>
+        <v>49.8274701242385</v>
       </c>
       <c r="G25" t="n">
-        <v>181.7519766313346</v>
+        <v>49.8274701242385</v>
       </c>
       <c r="H25" t="n">
-        <v>49.82747012423852</v>
+        <v>49.8274701242385</v>
       </c>
       <c r="I25" t="n">
-        <v>49.82747012423852</v>
+        <v>49.8274701242385</v>
       </c>
       <c r="J25" t="n">
-        <v>198.5826975000893</v>
+        <v>112.0030123353994</v>
       </c>
       <c r="K25" t="n">
-        <v>575.5146674960207</v>
+        <v>488.9349823313308</v>
       </c>
       <c r="L25" t="n">
-        <v>960.7172091591127</v>
+        <v>619.6819049649075</v>
       </c>
       <c r="M25" t="n">
-        <v>1098.571507004946</v>
+        <v>1217.020069991654</v>
       </c>
       <c r="N25" t="n">
-        <v>1233.147937767512</v>
+        <v>1793.855303911864</v>
       </c>
       <c r="O25" t="n">
-        <v>1777.120302629031</v>
+        <v>2292.819971463704</v>
       </c>
       <c r="P25" t="n">
-        <v>2230.989986052541</v>
+        <v>2399.182760916872</v>
       </c>
       <c r="Q25" t="n">
-        <v>2472.822843121708</v>
+        <v>2472.822843121707</v>
       </c>
       <c r="R25" t="n">
-        <v>2491.373506211926</v>
+        <v>2491.373506211925</v>
       </c>
       <c r="S25" t="n">
-        <v>2491.373506211926</v>
+        <v>2478.773844727969</v>
       </c>
       <c r="T25" t="n">
-        <v>2249.327908325339</v>
+        <v>2236.728246841382</v>
       </c>
       <c r="U25" t="n">
-        <v>1970.943850325699</v>
+        <v>1958.344188841742</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.988342196129</v>
+        <v>1671.388680712172</v>
       </c>
       <c r="W25" t="n">
-        <v>1411.961937782421</v>
+        <v>1399.362276298464</v>
       </c>
       <c r="X25" t="n">
-        <v>1285.895028138973</v>
+        <v>1153.970521631876</v>
       </c>
       <c r="Y25" t="n">
-        <v>1058.475357453081</v>
+        <v>926.5508509459846</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2027.004811684502</v>
+        <v>858.4033903932333</v>
       </c>
       <c r="C26" t="n">
-        <v>1588.862338867926</v>
+        <v>858.4033903932333</v>
       </c>
       <c r="D26" t="n">
-        <v>1152.95255404237</v>
+        <v>483.6022149659433</v>
       </c>
       <c r="E26" t="n">
-        <v>1145.73656262527</v>
+        <v>49.82747012423851</v>
       </c>
       <c r="F26" t="n">
-        <v>717.8691330344777</v>
+        <v>49.82747012423851</v>
       </c>
       <c r="G26" t="n">
-        <v>318.4716417465467</v>
+        <v>49.82747012423851</v>
       </c>
       <c r="H26" t="n">
-        <v>49.82747012423852</v>
+        <v>49.82747012423851</v>
       </c>
       <c r="I26" t="n">
-        <v>125.0024357192124</v>
+        <v>125.0024357192122</v>
       </c>
       <c r="J26" t="n">
-        <v>291.4002506756539</v>
+        <v>291.400250675654</v>
       </c>
       <c r="K26" t="n">
-        <v>540.7874411116301</v>
+        <v>540.7874411116302</v>
       </c>
       <c r="L26" t="n">
-        <v>850.1743031713204</v>
+        <v>850.1743031713206</v>
       </c>
       <c r="M26" t="n">
         <v>1194.426799679019</v>
@@ -6250,7 +6250,7 @@
         <v>2368.220154984278</v>
       </c>
       <c r="R26" t="n">
-        <v>2491.373506211926</v>
+        <v>2491.373506211925</v>
       </c>
       <c r="S26" t="n">
         <v>2453.30438216941</v>
@@ -6262,16 +6262,16 @@
         <v>2453.30438216941</v>
       </c>
       <c r="V26" t="n">
-        <v>2453.30438216941</v>
+        <v>2090.687432103236</v>
       </c>
       <c r="W26" t="n">
-        <v>2453.30438216941</v>
+        <v>1685.831977514269</v>
       </c>
       <c r="X26" t="n">
-        <v>2453.30438216941</v>
+        <v>1266.68951409358</v>
       </c>
       <c r="Y26" t="n">
-        <v>2453.30438216941</v>
+        <v>858.4033903932333</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1358.569780124029</v>
+        <v>544.5923229369523</v>
       </c>
       <c r="C27" t="n">
-        <v>1252.113318960671</v>
+        <v>438.1358617735946</v>
       </c>
       <c r="D27" t="n">
-        <v>1157.023030107225</v>
+        <v>343.0455729201478</v>
       </c>
       <c r="E27" t="n">
-        <v>1062.902615434178</v>
+        <v>248.9251582471015</v>
       </c>
       <c r="F27" t="n">
-        <v>979.5187770503401</v>
+        <v>165.5413198632632</v>
       </c>
       <c r="G27" t="n">
-        <v>895.2039636196993</v>
+        <v>81.22650643262236</v>
       </c>
       <c r="H27" t="n">
-        <v>863.8049273113154</v>
+        <v>49.82747012423851</v>
       </c>
       <c r="I27" t="n">
-        <v>899.9210490973931</v>
+        <v>85.94359191031603</v>
       </c>
       <c r="J27" t="n">
-        <v>999.026447746297</v>
+        <v>185.0489905592199</v>
       </c>
       <c r="K27" t="n">
-        <v>1076.086210962068</v>
+        <v>354.4359021258462</v>
       </c>
       <c r="L27" t="n">
-        <v>1303.847817206624</v>
+        <v>582.1975083704025</v>
       </c>
       <c r="M27" t="n">
-        <v>1569.634868873083</v>
+        <v>847.9845600368608</v>
       </c>
       <c r="N27" t="n">
-        <v>1842.456512923097</v>
+        <v>1120.806204086875</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.035017194351</v>
+        <v>1278.057560007275</v>
       </c>
       <c r="P27" t="n">
-        <v>2292.343770101643</v>
+        <v>1478.366312914567</v>
       </c>
       <c r="Q27" t="n">
-        <v>2426.244866721006</v>
+        <v>1612.26740953393</v>
       </c>
       <c r="R27" t="n">
-        <v>2491.373506211926</v>
+        <v>1677.396049024849</v>
       </c>
       <c r="S27" t="n">
-        <v>2447.797981572359</v>
+        <v>1633.820524385282</v>
       </c>
       <c r="T27" t="n">
-        <v>2321.933302475848</v>
+        <v>1507.95584528877</v>
       </c>
       <c r="U27" t="n">
-        <v>2145.667168390498</v>
+        <v>1331.689711203421</v>
       </c>
       <c r="V27" t="n">
-        <v>1946.549650452498</v>
+        <v>1132.572193265421</v>
       </c>
       <c r="W27" t="n">
-        <v>1761.226896185692</v>
+        <v>947.2494389986148</v>
       </c>
       <c r="X27" t="n">
-        <v>1606.359460424572</v>
+        <v>792.3820032374947</v>
       </c>
       <c r="Y27" t="n">
-        <v>1479.873681203792</v>
+        <v>665.8962240167155</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>831.1474034427454</v>
+        <v>1034.287401840523</v>
       </c>
       <c r="C28" t="n">
-        <v>658.5856919259703</v>
+        <v>861.7256903237484</v>
       </c>
       <c r="D28" t="n">
-        <v>658.5856919259703</v>
+        <v>695.8476975252711</v>
       </c>
       <c r="E28" t="n">
-        <v>584.829203182935</v>
+        <v>526.0896937760083</v>
       </c>
       <c r="F28" t="n">
-        <v>408.1221491446912</v>
+        <v>349.3826397377645</v>
       </c>
       <c r="G28" t="n">
         <v>243.4281578701898</v>
@@ -6381,55 +6381,55 @@
         <v>111.5036513630937</v>
       </c>
       <c r="I28" t="n">
-        <v>49.82747012423852</v>
+        <v>49.82747012423851</v>
       </c>
       <c r="J28" t="n">
-        <v>198.5826975000893</v>
+        <v>112.0030123353995</v>
       </c>
       <c r="K28" t="n">
-        <v>575.5146674960207</v>
+        <v>214.1765277601953</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1506820166785</v>
+        <v>574.6742076552285</v>
       </c>
       <c r="M28" t="n">
-        <v>1423.488847043425</v>
+        <v>1172.012372681975</v>
       </c>
       <c r="N28" t="n">
-        <v>2000.324080963635</v>
+        <v>1748.847606602186</v>
       </c>
       <c r="O28" t="n">
-        <v>2124.627196599373</v>
+        <v>2292.819971463704</v>
       </c>
       <c r="P28" t="n">
-        <v>2230.989986052541</v>
+        <v>2399.182760916872</v>
       </c>
       <c r="Q28" t="n">
         <v>2472.822843121708</v>
       </c>
       <c r="R28" t="n">
-        <v>2491.373506211926</v>
+        <v>2491.373506211925</v>
       </c>
       <c r="S28" t="n">
-        <v>2347.769345257825</v>
+        <v>2491.373506211925</v>
       </c>
       <c r="T28" t="n">
-        <v>2105.723747371238</v>
+        <v>2249.327908325338</v>
       </c>
       <c r="U28" t="n">
-        <v>1827.339689371598</v>
+        <v>1970.943850325698</v>
       </c>
       <c r="V28" t="n">
-        <v>1540.384181242028</v>
+        <v>1970.943850325698</v>
       </c>
       <c r="W28" t="n">
-        <v>1268.35777682832</v>
+        <v>1698.91744591199</v>
       </c>
       <c r="X28" t="n">
-        <v>1022.966022161733</v>
+        <v>1453.525691245402</v>
       </c>
       <c r="Y28" t="n">
-        <v>1022.966022161733</v>
+        <v>1226.106020559511</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1658.383542281656</v>
+        <v>2184.919393486799</v>
       </c>
       <c r="C29" t="n">
-        <v>1220.241069465079</v>
+        <v>1746.776920670222</v>
       </c>
       <c r="D29" t="n">
-        <v>1151.643877876183</v>
+        <v>1310.867135844667</v>
       </c>
       <c r="E29" t="n">
-        <v>717.8691330344777</v>
+        <v>877.0923910029617</v>
       </c>
       <c r="F29" t="n">
-        <v>717.8691330344777</v>
+        <v>449.2249614121695</v>
       </c>
       <c r="G29" t="n">
-        <v>318.4716417465467</v>
+        <v>49.82747012423851</v>
       </c>
       <c r="H29" t="n">
         <v>49.82747012423851</v>
       </c>
       <c r="I29" t="n">
-        <v>125.0024357192121</v>
+        <v>125.0024357192122</v>
       </c>
       <c r="J29" t="n">
-        <v>291.4002506756535</v>
+        <v>291.400250675654</v>
       </c>
       <c r="K29" t="n">
-        <v>540.7874411116297</v>
+        <v>540.7874411116302</v>
       </c>
       <c r="L29" t="n">
-        <v>850.1743031713202</v>
+        <v>850.1743031713204</v>
       </c>
       <c r="M29" t="n">
-        <v>1194.426799679018</v>
+        <v>1194.426799679019</v>
       </c>
       <c r="N29" t="n">
         <v>1544.249661485115</v>
@@ -6490,25 +6490,25 @@
         <v>2491.373506211925</v>
       </c>
       <c r="S29" t="n">
-        <v>2491.373506211925</v>
+        <v>2453.30438216941</v>
       </c>
       <c r="T29" t="n">
-        <v>2280.062767823708</v>
+        <v>2241.993643781193</v>
       </c>
       <c r="U29" t="n">
-        <v>2021.00049234783</v>
+        <v>2184.919393486799</v>
       </c>
       <c r="V29" t="n">
-        <v>1658.383542281656</v>
+        <v>2184.919393486799</v>
       </c>
       <c r="W29" t="n">
-        <v>1658.383542281656</v>
+        <v>2184.919393486799</v>
       </c>
       <c r="X29" t="n">
-        <v>1658.383542281656</v>
+        <v>2184.919393486799</v>
       </c>
       <c r="Y29" t="n">
-        <v>1658.383542281656</v>
+        <v>2184.919393486799</v>
       </c>
     </row>
     <row r="30">
@@ -6548,13 +6548,13 @@
         <v>354.4359021258462</v>
       </c>
       <c r="L30" t="n">
-        <v>489.8703600195479</v>
+        <v>582.1975083704025</v>
       </c>
       <c r="M30" t="n">
-        <v>755.6574116860063</v>
+        <v>847.9845600368608</v>
       </c>
       <c r="N30" t="n">
-        <v>1028.47905573602</v>
+        <v>1028.479055736021</v>
       </c>
       <c r="O30" t="n">
         <v>1278.057560007275</v>
@@ -6597,49 +6597,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>882.1117907564931</v>
+        <v>861.5927262593322</v>
       </c>
       <c r="C31" t="n">
-        <v>709.550079239718</v>
+        <v>689.0310147425571</v>
       </c>
       <c r="D31" t="n">
-        <v>543.6720864412407</v>
+        <v>523.1530219440798</v>
       </c>
       <c r="E31" t="n">
-        <v>373.914082691978</v>
+        <v>523.1530219440798</v>
       </c>
       <c r="F31" t="n">
-        <v>276.1976426375951</v>
+        <v>346.445967905836</v>
       </c>
       <c r="G31" t="n">
-        <v>111.5036513630937</v>
+        <v>181.7519766313346</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5036513630937</v>
+        <v>49.82747012423851</v>
       </c>
       <c r="I31" t="n">
         <v>49.82747012423851</v>
       </c>
       <c r="J31" t="n">
-        <v>198.5826975000893</v>
+        <v>112.0030123353995</v>
       </c>
       <c r="K31" t="n">
-        <v>575.5146674960207</v>
+        <v>488.9349823313308</v>
       </c>
       <c r="L31" t="n">
-        <v>1124.471471897558</v>
+        <v>1037.891786732869</v>
       </c>
       <c r="M31" t="n">
-        <v>1262.325769743392</v>
+        <v>1175.746084578702</v>
       </c>
       <c r="N31" t="n">
-        <v>1396.902200505958</v>
+        <v>1401.340712631844</v>
       </c>
       <c r="O31" t="n">
-        <v>1777.120302629031</v>
+        <v>1945.313077493363</v>
       </c>
       <c r="P31" t="n">
-        <v>2230.98998605254</v>
+        <v>2399.182760916872</v>
       </c>
       <c r="Q31" t="n">
         <v>2472.822843121708</v>
@@ -6654,19 +6654,19 @@
         <v>2105.723747371238</v>
       </c>
       <c r="U31" t="n">
-        <v>2105.723747371238</v>
+        <v>1827.339689371598</v>
       </c>
       <c r="V31" t="n">
-        <v>1818.768239241668</v>
+        <v>1798.249174744507</v>
       </c>
       <c r="W31" t="n">
-        <v>1546.74183482796</v>
+        <v>1526.222770330799</v>
       </c>
       <c r="X31" t="n">
-        <v>1301.350080161372</v>
+        <v>1280.831015664211</v>
       </c>
       <c r="Y31" t="n">
-        <v>1073.93040947548</v>
+        <v>1053.411344978319</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1192.523899388679</v>
+        <v>1785.521902198868</v>
       </c>
       <c r="C32" t="n">
-        <v>754.3814265721022</v>
+        <v>1347.379429382291</v>
       </c>
       <c r="D32" t="n">
-        <v>318.4716417465467</v>
+        <v>911.4696445567356</v>
       </c>
       <c r="E32" t="n">
-        <v>318.4716417465467</v>
+        <v>477.6948997150308</v>
       </c>
       <c r="F32" t="n">
-        <v>318.4716417465467</v>
+        <v>49.82747012423851</v>
       </c>
       <c r="G32" t="n">
-        <v>318.4716417465467</v>
+        <v>49.82747012423851</v>
       </c>
       <c r="H32" t="n">
-        <v>49.82747012423852</v>
+        <v>49.82747012423851</v>
       </c>
       <c r="I32" t="n">
-        <v>125.0024357192126</v>
+        <v>125.0024357192125</v>
       </c>
       <c r="J32" t="n">
         <v>291.400250675654</v>
@@ -6706,13 +6706,13 @@
         <v>540.7874411116302</v>
       </c>
       <c r="L32" t="n">
-        <v>850.1743031713206</v>
+        <v>850.1743031713204</v>
       </c>
       <c r="M32" t="n">
         <v>1194.426799679019</v>
       </c>
       <c r="N32" t="n">
-        <v>1544.249661485116</v>
+        <v>1544.249661485115</v>
       </c>
       <c r="O32" t="n">
         <v>1874.577470080142</v>
@@ -6724,7 +6724,7 @@
         <v>2368.220154984278</v>
       </c>
       <c r="R32" t="n">
-        <v>2491.373506211926</v>
+        <v>2491.373506211925</v>
       </c>
       <c r="S32" t="n">
         <v>2453.30438216941</v>
@@ -6733,19 +6733,19 @@
         <v>2453.30438216941</v>
       </c>
       <c r="U32" t="n">
-        <v>2194.242106693531</v>
+        <v>2453.30438216941</v>
       </c>
       <c r="V32" t="n">
-        <v>2194.242106693531</v>
+        <v>2453.30438216941</v>
       </c>
       <c r="W32" t="n">
-        <v>2194.242106693531</v>
+        <v>2453.30438216941</v>
       </c>
       <c r="X32" t="n">
-        <v>1775.099643272842</v>
+        <v>2453.30438216941</v>
       </c>
       <c r="Y32" t="n">
-        <v>1618.823469873587</v>
+        <v>2211.821472683775</v>
       </c>
     </row>
     <row r="33">
@@ -6773,34 +6773,34 @@
         <v>81.22650643262236</v>
       </c>
       <c r="H33" t="n">
-        <v>49.82747012423852</v>
+        <v>49.82747012423851</v>
       </c>
       <c r="I33" t="n">
-        <v>85.94359191031604</v>
+        <v>85.94359191031603</v>
       </c>
       <c r="J33" t="n">
-        <v>185.04899055922</v>
+        <v>185.0489905592199</v>
       </c>
       <c r="K33" t="n">
         <v>354.4359021258462</v>
       </c>
       <c r="L33" t="n">
-        <v>582.1975083704026</v>
+        <v>582.1975083704025</v>
       </c>
       <c r="M33" t="n">
-        <v>820.7860511769253</v>
+        <v>847.9845600368608</v>
       </c>
       <c r="N33" t="n">
-        <v>1093.60769522694</v>
+        <v>1120.806204086875</v>
       </c>
       <c r="O33" t="n">
-        <v>1343.186199498194</v>
+        <v>1370.384708358129</v>
       </c>
       <c r="P33" t="n">
-        <v>1543.494952405486</v>
+        <v>1570.693461265421</v>
       </c>
       <c r="Q33" t="n">
-        <v>1677.396049024849</v>
+        <v>1612.26740953393</v>
       </c>
       <c r="R33" t="n">
         <v>1677.396049024849</v>
@@ -6834,55 +6834,55 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1093.02691124745</v>
+        <v>734.7322322269974</v>
       </c>
       <c r="C34" t="n">
-        <v>920.465199730675</v>
+        <v>562.1705207102224</v>
       </c>
       <c r="D34" t="n">
-        <v>754.5872069321977</v>
+        <v>396.2925279117451</v>
       </c>
       <c r="E34" t="n">
-        <v>584.829203182935</v>
+        <v>226.5345241624823</v>
       </c>
       <c r="F34" t="n">
-        <v>408.1221491446912</v>
+        <v>49.82747012423851</v>
       </c>
       <c r="G34" t="n">
-        <v>243.4281578701898</v>
+        <v>49.82747012423851</v>
       </c>
       <c r="H34" t="n">
-        <v>111.5036513630937</v>
+        <v>49.82747012423851</v>
       </c>
       <c r="I34" t="n">
-        <v>49.82747012423852</v>
+        <v>49.82747012423851</v>
       </c>
       <c r="J34" t="n">
         <v>198.5826975000893</v>
       </c>
       <c r="K34" t="n">
-        <v>575.5146674960207</v>
+        <v>411.7604047575752</v>
       </c>
       <c r="L34" t="n">
-        <v>1124.471471897558</v>
+        <v>960.7172091591129</v>
       </c>
       <c r="M34" t="n">
-        <v>1262.325769743392</v>
+        <v>1098.571507004947</v>
       </c>
       <c r="N34" t="n">
-        <v>1396.902200505958</v>
+        <v>1233.147937767512</v>
       </c>
       <c r="O34" t="n">
         <v>1777.120302629031</v>
       </c>
       <c r="P34" t="n">
-        <v>2230.989986052541</v>
+        <v>2230.98998605254</v>
       </c>
       <c r="Q34" t="n">
         <v>2472.822843121708</v>
       </c>
       <c r="R34" t="n">
-        <v>2491.373506211926</v>
+        <v>2491.373506211925</v>
       </c>
       <c r="S34" t="n">
         <v>2347.769345257825</v>
@@ -6897,13 +6897,13 @@
         <v>1540.384181242028</v>
       </c>
       <c r="W34" t="n">
-        <v>1512.265200652329</v>
+        <v>1268.35777682832</v>
       </c>
       <c r="X34" t="n">
-        <v>1512.265200652329</v>
+        <v>1022.966022161732</v>
       </c>
       <c r="Y34" t="n">
-        <v>1284.845529966437</v>
+        <v>926.5508509459846</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1294.170861960497</v>
+        <v>1349.612117373312</v>
       </c>
       <c r="C35" t="n">
-        <v>856.0283891439208</v>
+        <v>911.4696445567356</v>
       </c>
       <c r="D35" t="n">
-        <v>420.1186043183653</v>
+        <v>911.4696445567356</v>
       </c>
       <c r="E35" t="n">
-        <v>420.1186043183653</v>
+        <v>477.6948997150308</v>
       </c>
       <c r="F35" t="n">
         <v>49.82747012423851</v>
@@ -6934,16 +6934,16 @@
         <v>49.82747012423851</v>
       </c>
       <c r="I35" t="n">
-        <v>125.0024357192124</v>
+        <v>125.0024357192126</v>
       </c>
       <c r="J35" t="n">
-        <v>291.400250675654</v>
+        <v>291.4002506756541</v>
       </c>
       <c r="K35" t="n">
-        <v>540.7874411116302</v>
+        <v>540.7874411116303</v>
       </c>
       <c r="L35" t="n">
-        <v>850.1743031713205</v>
+        <v>850.1743031713206</v>
       </c>
       <c r="M35" t="n">
         <v>1194.426799679019</v>
@@ -6973,16 +6973,16 @@
         <v>2491.373506211925</v>
       </c>
       <c r="V35" t="n">
-        <v>2128.756556145752</v>
+        <v>2491.373506211925</v>
       </c>
       <c r="W35" t="n">
-        <v>2128.756556145752</v>
+        <v>2086.518051622958</v>
       </c>
       <c r="X35" t="n">
-        <v>2128.756556145752</v>
+        <v>1757.898241073659</v>
       </c>
       <c r="Y35" t="n">
-        <v>1720.470432445405</v>
+        <v>1349.612117373312</v>
       </c>
     </row>
     <row r="36">
@@ -7028,7 +7028,7 @@
         <v>847.9845600368608</v>
       </c>
       <c r="N36" t="n">
-        <v>1028.47905573602</v>
+        <v>1120.806204086875</v>
       </c>
       <c r="O36" t="n">
         <v>1278.057560007275</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>875.7541371705615</v>
+        <v>603.7277327568531</v>
       </c>
       <c r="C37" t="n">
-        <v>703.1924256537865</v>
+        <v>431.1660212400781</v>
       </c>
       <c r="D37" t="n">
-        <v>537.3144328553092</v>
+        <v>431.1660212400781</v>
       </c>
       <c r="E37" t="n">
-        <v>367.5564291060464</v>
+        <v>391.2285154369837</v>
       </c>
       <c r="F37" t="n">
-        <v>190.8493750678026</v>
+        <v>214.5214613987399</v>
       </c>
       <c r="G37" t="n">
-        <v>181.7519766313346</v>
+        <v>49.82747012423851</v>
       </c>
       <c r="H37" t="n">
         <v>49.82747012423851</v>
@@ -7095,25 +7095,25 @@
         <v>49.82747012423851</v>
       </c>
       <c r="J37" t="n">
-        <v>198.5826975000893</v>
+        <v>112.0030123353995</v>
       </c>
       <c r="K37" t="n">
-        <v>575.5146674960207</v>
+        <v>488.9349823313308</v>
       </c>
       <c r="L37" t="n">
-        <v>706.2615901295975</v>
+        <v>619.6819049649075</v>
       </c>
       <c r="M37" t="n">
-        <v>844.1158879754312</v>
+        <v>1217.020069991654</v>
       </c>
       <c r="N37" t="n">
-        <v>1233.147937767512</v>
+        <v>1793.855303911864</v>
       </c>
       <c r="O37" t="n">
-        <v>1777.120302629031</v>
+        <v>1918.158419547602</v>
       </c>
       <c r="P37" t="n">
-        <v>2230.98998605254</v>
+        <v>2372.028102971111</v>
       </c>
       <c r="Q37" t="n">
         <v>2472.822843121708</v>
@@ -7134,13 +7134,13 @@
         <v>1540.384181242028</v>
       </c>
       <c r="W37" t="n">
-        <v>1540.384181242028</v>
+        <v>1268.35777682832</v>
       </c>
       <c r="X37" t="n">
-        <v>1294.992426575441</v>
+        <v>1022.966022161732</v>
       </c>
       <c r="Y37" t="n">
-        <v>1067.572755889549</v>
+        <v>795.5463514758403</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1785.521902198868</v>
+        <v>1982.931368305314</v>
       </c>
       <c r="C38" t="n">
-        <v>1347.379429382291</v>
+        <v>1544.788895488737</v>
       </c>
       <c r="D38" t="n">
-        <v>911.4696445567356</v>
+        <v>1544.788895488737</v>
       </c>
       <c r="E38" t="n">
-        <v>477.6948997150308</v>
+        <v>1111.014150647032</v>
       </c>
       <c r="F38" t="n">
-        <v>49.82747012423851</v>
+        <v>683.14672105624</v>
       </c>
       <c r="G38" t="n">
-        <v>49.82747012423851</v>
+        <v>318.4716417465467</v>
       </c>
       <c r="H38" t="n">
         <v>49.82747012423851</v>
@@ -7174,19 +7174,19 @@
         <v>125.0024357192122</v>
       </c>
       <c r="J38" t="n">
-        <v>291.4002506756538</v>
+        <v>291.400250675654</v>
       </c>
       <c r="K38" t="n">
-        <v>540.7874411116301</v>
+        <v>540.7874411116302</v>
       </c>
       <c r="L38" t="n">
-        <v>850.1743031713204</v>
+        <v>850.1743031713206</v>
       </c>
       <c r="M38" t="n">
         <v>1194.426799679019</v>
       </c>
       <c r="N38" t="n">
-        <v>1544.249661485115</v>
+        <v>1544.249661485116</v>
       </c>
       <c r="O38" t="n">
         <v>1874.577470080142</v>
@@ -7201,25 +7201,25 @@
         <v>2491.373506211925</v>
       </c>
       <c r="S38" t="n">
-        <v>2491.373506211925</v>
+        <v>2453.30438216941</v>
       </c>
       <c r="T38" t="n">
-        <v>2491.373506211925</v>
+        <v>2241.993643781193</v>
       </c>
       <c r="U38" t="n">
-        <v>2491.373506211925</v>
+        <v>1982.931368305314</v>
       </c>
       <c r="V38" t="n">
-        <v>2193.808025899214</v>
+        <v>1982.931368305314</v>
       </c>
       <c r="W38" t="n">
-        <v>2193.808025899214</v>
+        <v>1982.931368305314</v>
       </c>
       <c r="X38" t="n">
-        <v>2193.808025899214</v>
+        <v>1982.931368305314</v>
       </c>
       <c r="Y38" t="n">
-        <v>1785.521902198868</v>
+        <v>1982.931368305314</v>
       </c>
     </row>
     <row r="39">
@@ -7253,19 +7253,19 @@
         <v>85.94359191031603</v>
       </c>
       <c r="J39" t="n">
-        <v>185.0489905592199</v>
+        <v>92.72184220836577</v>
       </c>
       <c r="K39" t="n">
-        <v>354.4359021258462</v>
+        <v>262.108753774992</v>
       </c>
       <c r="L39" t="n">
-        <v>582.1975083704025</v>
+        <v>489.8703600195483</v>
       </c>
       <c r="M39" t="n">
-        <v>847.9845600368608</v>
+        <v>755.6574116860066</v>
       </c>
       <c r="N39" t="n">
-        <v>1028.47905573602</v>
+        <v>1028.479055736021</v>
       </c>
       <c r="O39" t="n">
         <v>1278.057560007275</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>603.7277327568531</v>
+        <v>1093.02691124745</v>
       </c>
       <c r="C40" t="n">
-        <v>452.9046966758389</v>
+        <v>920.465199730675</v>
       </c>
       <c r="D40" t="n">
-        <v>452.9046966758389</v>
+        <v>754.5872069321977</v>
       </c>
       <c r="E40" t="n">
-        <v>452.9046966758389</v>
+        <v>584.829203182935</v>
       </c>
       <c r="F40" t="n">
-        <v>276.1976426375951</v>
+        <v>408.1221491446912</v>
       </c>
       <c r="G40" t="n">
-        <v>111.5036513630937</v>
+        <v>243.4281578701898</v>
       </c>
       <c r="H40" t="n">
         <v>111.5036513630937</v>
@@ -7332,19 +7332,19 @@
         <v>49.82747012423851</v>
       </c>
       <c r="J40" t="n">
-        <v>198.5826975000893</v>
+        <v>112.0030123353995</v>
       </c>
       <c r="K40" t="n">
-        <v>575.5146674960207</v>
+        <v>387.7114833678914</v>
       </c>
       <c r="L40" t="n">
-        <v>706.2615901295975</v>
+        <v>518.4584060014682</v>
       </c>
       <c r="M40" t="n">
-        <v>1303.599755156344</v>
+        <v>656.3127038473019</v>
       </c>
       <c r="N40" t="n">
-        <v>1652.817186993293</v>
+        <v>1233.147937767512</v>
       </c>
       <c r="O40" t="n">
         <v>1777.120302629031</v>
@@ -7359,25 +7359,25 @@
         <v>2491.373506211925</v>
       </c>
       <c r="S40" t="n">
-        <v>2347.769345257825</v>
+        <v>2491.373506211925</v>
       </c>
       <c r="T40" t="n">
-        <v>2105.723747371238</v>
+        <v>2491.373506211925</v>
       </c>
       <c r="U40" t="n">
-        <v>1827.339689371598</v>
+        <v>2212.989448212285</v>
       </c>
       <c r="V40" t="n">
-        <v>1540.384181242028</v>
+        <v>1926.033940082716</v>
       </c>
       <c r="W40" t="n">
-        <v>1268.35777682832</v>
+        <v>1654.007535669007</v>
       </c>
       <c r="X40" t="n">
-        <v>1022.966022161732</v>
+        <v>1512.265200652329</v>
       </c>
       <c r="Y40" t="n">
-        <v>795.5463514758403</v>
+        <v>1284.845529966437</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>875.0283985398086</v>
+        <v>794.7207699744989</v>
       </c>
       <c r="C41" t="n">
-        <v>449.2249614121695</v>
+        <v>485.737254949794</v>
       </c>
       <c r="D41" t="n">
-        <v>449.2249614121695</v>
+        <v>49.8274701242385</v>
       </c>
       <c r="E41" t="n">
-        <v>449.2249614121695</v>
+        <v>49.8274701242385</v>
       </c>
       <c r="F41" t="n">
-        <v>449.2249614121695</v>
+        <v>49.8274701242385</v>
       </c>
       <c r="G41" t="n">
-        <v>49.82747012423852</v>
+        <v>49.8274701242385</v>
       </c>
       <c r="H41" t="n">
-        <v>49.82747012423852</v>
+        <v>49.8274701242385</v>
       </c>
       <c r="I41" t="n">
-        <v>125.0024357192124</v>
+        <v>125.002435719212</v>
       </c>
       <c r="J41" t="n">
-        <v>291.4002506756539</v>
+        <v>291.4002506756534</v>
       </c>
       <c r="K41" t="n">
-        <v>540.7874411116301</v>
+        <v>540.7874411116296</v>
       </c>
       <c r="L41" t="n">
-        <v>850.1743031713204</v>
+        <v>850.1743031713199</v>
       </c>
       <c r="M41" t="n">
-        <v>1194.426799679019</v>
+        <v>1194.426799679018</v>
       </c>
       <c r="N41" t="n">
-        <v>1544.249661485116</v>
+        <v>1544.249661485115</v>
       </c>
       <c r="O41" t="n">
-        <v>1874.577470080142</v>
+        <v>1874.577470080141</v>
       </c>
       <c r="P41" t="n">
         <v>2156.504612312045</v>
@@ -7435,28 +7435,28 @@
         <v>2368.220154984278</v>
       </c>
       <c r="R41" t="n">
-        <v>2491.373506211926</v>
+        <v>2491.373506211925</v>
       </c>
       <c r="S41" t="n">
-        <v>2491.373506211926</v>
+        <v>2453.304382169409</v>
       </c>
       <c r="T41" t="n">
-        <v>2491.373506211926</v>
+        <v>2453.304382169409</v>
       </c>
       <c r="U41" t="n">
-        <v>2491.373506211926</v>
+        <v>2453.304382169409</v>
       </c>
       <c r="V41" t="n">
-        <v>2128.756556145752</v>
+        <v>2453.304382169409</v>
       </c>
       <c r="W41" t="n">
-        <v>2128.756556145752</v>
+        <v>2048.448927580443</v>
       </c>
       <c r="X41" t="n">
-        <v>1709.614092725063</v>
+        <v>1629.306464159753</v>
       </c>
       <c r="Y41" t="n">
-        <v>1301.327969024716</v>
+        <v>1221.020340459407</v>
       </c>
     </row>
     <row r="42">
@@ -7478,31 +7478,31 @@
         <v>248.9251582471015</v>
       </c>
       <c r="F42" t="n">
-        <v>165.5413198632632</v>
+        <v>165.5413198632631</v>
       </c>
       <c r="G42" t="n">
-        <v>81.22650643262236</v>
+        <v>81.22650643262234</v>
       </c>
       <c r="H42" t="n">
-        <v>49.82747012423852</v>
+        <v>49.8274701242385</v>
       </c>
       <c r="I42" t="n">
-        <v>85.94359191031604</v>
+        <v>85.94359191031602</v>
       </c>
       <c r="J42" t="n">
-        <v>185.04899055922</v>
+        <v>92.72184220836577</v>
       </c>
       <c r="K42" t="n">
-        <v>354.4359021258462</v>
+        <v>262.108753774992</v>
       </c>
       <c r="L42" t="n">
-        <v>582.1975083704026</v>
+        <v>489.8703600195483</v>
       </c>
       <c r="M42" t="n">
-        <v>847.9845600368609</v>
+        <v>755.6574116860066</v>
       </c>
       <c r="N42" t="n">
-        <v>1120.806204086875</v>
+        <v>1028.479055736021</v>
       </c>
       <c r="O42" t="n">
         <v>1278.057560007275</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>796.4084134658526</v>
+        <v>1093.02691124745</v>
       </c>
       <c r="C43" t="n">
-        <v>623.8467019490776</v>
+        <v>920.465199730675</v>
       </c>
       <c r="D43" t="n">
-        <v>457.9687091506003</v>
+        <v>754.5872069321977</v>
       </c>
       <c r="E43" t="n">
-        <v>288.2107054013375</v>
+        <v>584.829203182935</v>
       </c>
       <c r="F43" t="n">
-        <v>111.5036513630937</v>
+        <v>408.1221491446912</v>
       </c>
       <c r="G43" t="n">
-        <v>111.5036513630937</v>
+        <v>243.4281578701898</v>
       </c>
       <c r="H43" t="n">
         <v>111.5036513630937</v>
       </c>
       <c r="I43" t="n">
-        <v>49.82747012423852</v>
+        <v>49.8274701242385</v>
       </c>
       <c r="J43" t="n">
-        <v>112.0030123353995</v>
+        <v>112.0030123353994</v>
       </c>
       <c r="K43" t="n">
-        <v>445.3866524794725</v>
+        <v>488.9349823313308</v>
       </c>
       <c r="L43" t="n">
-        <v>994.3434568810104</v>
+        <v>1037.891786732869</v>
       </c>
       <c r="M43" t="n">
-        <v>1591.681621907757</v>
+        <v>1175.746084578702</v>
       </c>
       <c r="N43" t="n">
-        <v>2168.516855827967</v>
+        <v>1401.340712631844</v>
       </c>
       <c r="O43" t="n">
-        <v>2292.819971463705</v>
+        <v>1945.313077493362</v>
       </c>
       <c r="P43" t="n">
-        <v>2399.182760916873</v>
+        <v>2399.182760916872</v>
       </c>
       <c r="Q43" t="n">
-        <v>2472.822843121708</v>
+        <v>2472.822843121707</v>
       </c>
       <c r="R43" t="n">
-        <v>2491.373506211926</v>
+        <v>2491.373506211925</v>
       </c>
       <c r="S43" t="n">
-        <v>2491.373506211926</v>
+        <v>2347.769345257824</v>
       </c>
       <c r="T43" t="n">
-        <v>2249.327908325339</v>
+        <v>2105.723747371237</v>
       </c>
       <c r="U43" t="n">
-        <v>1970.943850325699</v>
+        <v>1827.339689371597</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.988342196129</v>
+        <v>1757.656955318917</v>
       </c>
       <c r="W43" t="n">
-        <v>1411.961937782421</v>
+        <v>1757.656955318917</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.570183115833</v>
+        <v>1512.265200652329</v>
       </c>
       <c r="Y43" t="n">
-        <v>939.1505124299415</v>
+        <v>1284.845529966437</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1188.156171413807</v>
+        <v>1426.769702038391</v>
       </c>
       <c r="C44" t="n">
-        <v>1188.156171413807</v>
+        <v>1426.769702038391</v>
       </c>
       <c r="D44" t="n">
-        <v>752.2463865882515</v>
+        <v>1426.769702038391</v>
       </c>
       <c r="E44" t="n">
-        <v>318.4716417465467</v>
+        <v>992.9949571966856</v>
       </c>
       <c r="F44" t="n">
-        <v>318.4716417465467</v>
+        <v>565.1275276058934</v>
       </c>
       <c r="G44" t="n">
         <v>318.4716417465467</v>
       </c>
       <c r="H44" t="n">
-        <v>49.82747012423852</v>
+        <v>49.82747012423851</v>
       </c>
       <c r="I44" t="n">
-        <v>125.0024357192126</v>
+        <v>125.0024357192122</v>
       </c>
       <c r="J44" t="n">
         <v>291.400250675654</v>
@@ -7654,13 +7654,13 @@
         <v>540.7874411116302</v>
       </c>
       <c r="L44" t="n">
-        <v>850.1743031713206</v>
+        <v>850.1743031713204</v>
       </c>
       <c r="M44" t="n">
         <v>1194.426799679019</v>
       </c>
       <c r="N44" t="n">
-        <v>1544.249661485116</v>
+        <v>1544.249661485115</v>
       </c>
       <c r="O44" t="n">
         <v>1874.577470080142</v>
@@ -7672,28 +7672,28 @@
         <v>2368.220154984278</v>
       </c>
       <c r="R44" t="n">
-        <v>2491.373506211926</v>
+        <v>2491.373506211925</v>
       </c>
       <c r="S44" t="n">
-        <v>2491.373506211926</v>
+        <v>2453.30438216941</v>
       </c>
       <c r="T44" t="n">
-        <v>2491.373506211926</v>
+        <v>2453.30438216941</v>
       </c>
       <c r="U44" t="n">
-        <v>2491.373506211926</v>
+        <v>2194.242106693531</v>
       </c>
       <c r="V44" t="n">
-        <v>2128.756556145752</v>
+        <v>1831.625156627357</v>
       </c>
       <c r="W44" t="n">
-        <v>2128.756556145752</v>
+        <v>1426.769702038391</v>
       </c>
       <c r="X44" t="n">
-        <v>1709.614092725063</v>
+        <v>1426.769702038391</v>
       </c>
       <c r="Y44" t="n">
-        <v>1614.455741898715</v>
+        <v>1426.769702038391</v>
       </c>
     </row>
     <row r="45">
@@ -7721,28 +7721,28 @@
         <v>81.22650643262236</v>
       </c>
       <c r="H45" t="n">
-        <v>49.82747012423852</v>
+        <v>49.82747012423851</v>
       </c>
       <c r="I45" t="n">
-        <v>85.94359191031604</v>
+        <v>85.94359191031603</v>
       </c>
       <c r="J45" t="n">
-        <v>185.04899055922</v>
+        <v>185.0489905592199</v>
       </c>
       <c r="K45" t="n">
-        <v>262.1087537749916</v>
+        <v>354.4359021258462</v>
       </c>
       <c r="L45" t="n">
-        <v>489.8703600195479</v>
+        <v>582.1975083704025</v>
       </c>
       <c r="M45" t="n">
-        <v>755.6574116860063</v>
+        <v>847.9845600368608</v>
       </c>
       <c r="N45" t="n">
-        <v>1028.47905573602</v>
+        <v>1120.806204086875</v>
       </c>
       <c r="O45" t="n">
-        <v>1278.057560007275</v>
+        <v>1370.384708358129</v>
       </c>
       <c r="P45" t="n">
         <v>1478.366312914567</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>845.7733306434407</v>
+        <v>1073.93040947548</v>
       </c>
       <c r="C46" t="n">
-        <v>673.2116191266656</v>
+        <v>901.3686979587052</v>
       </c>
       <c r="D46" t="n">
-        <v>507.3336263281883</v>
+        <v>735.4907051602279</v>
       </c>
       <c r="E46" t="n">
-        <v>337.5756225789256</v>
+        <v>565.7327014109651</v>
       </c>
       <c r="F46" t="n">
-        <v>337.5756225789256</v>
+        <v>389.0256473727213</v>
       </c>
       <c r="G46" t="n">
-        <v>172.8816313044242</v>
+        <v>224.33165609822</v>
       </c>
       <c r="H46" t="n">
-        <v>111.5036513630937</v>
+        <v>92.40714959112387</v>
       </c>
       <c r="I46" t="n">
-        <v>49.82747012423852</v>
+        <v>49.82747012423851</v>
       </c>
       <c r="J46" t="n">
-        <v>198.5826975000893</v>
+        <v>112.0030123353995</v>
       </c>
       <c r="K46" t="n">
-        <v>575.5146674960207</v>
+        <v>488.9349823313308</v>
       </c>
       <c r="L46" t="n">
-        <v>706.2615901295975</v>
+        <v>1037.891786732869</v>
       </c>
       <c r="M46" t="n">
-        <v>1098.571507004946</v>
+        <v>1266.764281869279</v>
       </c>
       <c r="N46" t="n">
-        <v>1233.147937767512</v>
+        <v>1401.340712631844</v>
       </c>
       <c r="O46" t="n">
-        <v>1777.120302629031</v>
+        <v>1945.313077493363</v>
       </c>
       <c r="P46" t="n">
-        <v>2230.989986052541</v>
+        <v>2399.182760916872</v>
       </c>
       <c r="Q46" t="n">
         <v>2472.822843121708</v>
       </c>
       <c r="R46" t="n">
-        <v>2491.373506211926</v>
+        <v>2491.373506211925</v>
       </c>
       <c r="S46" t="n">
         <v>2347.769345257825</v>
       </c>
       <c r="T46" t="n">
-        <v>2347.769345257825</v>
+        <v>2105.723747371238</v>
       </c>
       <c r="U46" t="n">
-        <v>2069.385287258185</v>
+        <v>2105.723747371238</v>
       </c>
       <c r="V46" t="n">
-        <v>1782.429779128616</v>
+        <v>1818.768239241668</v>
       </c>
       <c r="W46" t="n">
-        <v>1510.403374714907</v>
+        <v>1546.74183482796</v>
       </c>
       <c r="X46" t="n">
-        <v>1265.01162004832</v>
+        <v>1301.350080161372</v>
       </c>
       <c r="Y46" t="n">
-        <v>1037.591949362428</v>
+        <v>1073.93040947548</v>
       </c>
     </row>
   </sheetData>
@@ -8528,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>3.065385582259226</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>2.337840299480829</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>1.191365816744668</v>
+        <v>0.4638205339662704</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2.923123287322517</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -8622,13 +8622,13 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>0.03251511490680103</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>2.583959521204308</v>
       </c>
       <c r="P10" t="n">
-        <v>2.375249808503933</v>
+        <v>2.681898459715343</v>
       </c>
       <c r="Q10" t="n">
         <v>2.860536639450492</v>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -8856,7 +8856,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>458.1582657371571</v>
+        <v>264.6463123855401</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -8865,7 +8865,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>70.05088382581016</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
         <v>169.8916917821538</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>458.1582657371569</v>
+        <v>458.1582657371566</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>45.75904403825075</v>
+        <v>158.2045317475392</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9321,19 +9321,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>6.525705103702194</v>
       </c>
       <c r="N19" t="n">
-        <v>118.2717723303429</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
         <v>423.9083325512944</v>
@@ -9561,25 +9561,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>105.0002374943213</v>
       </c>
       <c r="L22" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>458.1582657371571</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>70.05088382580993</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>257.0258778075912</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512944</v>
+        <v>378.4460120364668</v>
       </c>
       <c r="P25" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10032,13 +10032,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>121.1000928152333</v>
+        <v>232.0714719812693</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645587</v>
@@ -10047,13 +10047,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -10281,16 +10281,16 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>91.93757302078393</v>
       </c>
       <c r="O31" t="n">
-        <v>258.499986350844</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10509,7 +10509,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960966</v>
+        <v>112.1254462956466</v>
       </c>
       <c r="L34" t="n">
         <v>422.4342240080415</v>
@@ -10521,7 +10521,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>258.4999863508444</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
         <v>351.0170646165068</v>
@@ -10743,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -10752,19 +10752,19 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N37" t="n">
-        <v>257.0258778075909</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>27.42894741996042</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10980,22 +10980,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>175.2878339471679</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>216.8090919943265</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
@@ -11220,22 +11220,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>233.5455805245224</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>446.7260637956006</v>
+        <v>91.93757302078347</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -11454,16 +11454,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>257.0258778075912</v>
+        <v>91.93757302078416</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -11475,7 +11475,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23020,16 +23020,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18.77402585779841</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>30.49849916615064</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>28.28813805503963</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>27.37024434563791</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
@@ -23086,10 +23086,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>12.88428573883256</v>
+        <v>11.68848986422212</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.9407135410828187</v>
+        <v>0.9407135410828178</v>
       </c>
     </row>
     <row r="9">
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -23275,7 +23275,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
-        <v>234.5030615039085</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>243.4044025804678</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>140.2937833787283</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
-        <v>60.78712941686962</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23494,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>37.86706084253211</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>250.1481187106441</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
         <v>267.0243359415286</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>146.3469376859573</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>38.13827010588619</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>53.92146422463884</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735099</v>
+        <v>40.06170608735101</v>
       </c>
       <c r="T17" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
-        <v>39.47712290498134</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>75.05377899077673</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>87.40645861671632</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -23986,7 +23986,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>175.3568058070911</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>9.133043080100833</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>81.78609870396701</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,13 +24183,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>86.46271692325558</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24208,13 +24208,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>73.59655086424095</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>15.40866788896363</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
         <v>423.5887552948843</v>
@@ -24268,13 +24268,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24381,10 +24381,10 @@
         <v>163.0470513617563</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>130.6052614420252</v>
       </c>
       <c r="I25" t="n">
-        <v>61.05941942646665</v>
+        <v>61.05941942646666</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>142.1681193445597</v>
+        <v>129.6944544754433</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>118.1315965729079</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>60.49752330428288</v>
       </c>
       <c r="E26" t="n">
-        <v>422.2931658903585</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>395.4035163750517</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>265.9577299060851</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24502,16 +24502,16 @@
         <v>256.4716527211199</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24606,16 +24606,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>95.04149985616513</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>58.15211431285739</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>142.1681193445597</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24685,19 +24685,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>363.6394673042921</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>265.9577299060851</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>37.68843280209084</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>199.9681449296703</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>78.2007078440223</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>130.6052614420252</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>61.05941942646666</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,10 +24894,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6002174196435</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>255.2863435674541</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24925,16 +24925,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>395.4035163750517</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>265.9577299060851</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24973,7 +24973,7 @@
         <v>209.1976310043347</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.4716527211199</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
@@ -24982,10 +24982,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>249.4898507980805</v>
+        <v>165.1351820725654</v>
       </c>
     </row>
     <row r="33">
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.0470513617563</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>130.6052614420252</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>61.05941942646666</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>241.4683495857689</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>129.6944544754428</v>
       </c>
     </row>
     <row r="35">
@@ -25153,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>57.00053244269884</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>395.4035163750517</v>
@@ -25213,13 +25213,13 @@
         <v>256.4716527211199</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>89.61742634267597</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>128.5222929667067</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>154.040626909653</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>130.6052614420252</v>
       </c>
       <c r="I37" t="n">
-        <v>61.05941942646665</v>
+        <v>61.05941942646666</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25396,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25405,10 +25405,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>395.4035163750517</v>
+        <v>34.37518785845526</v>
       </c>
       <c r="H38" t="n">
-        <v>265.9577299060851</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>37.68843280209084</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>209.1976310043347</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.4716527211199</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>64.40095505592797</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
@@ -25459,7 +25459,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>21.52128868140321</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>130.6052614420252</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.1681193445597</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>239.625141907721</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>102.61292545341</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25630,10 +25630,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>12.21564533204827</v>
+        <v>127.8673682139531</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -25642,7 +25642,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.4035163750517</v>
       </c>
       <c r="H41" t="n">
         <v>265.9577299060851</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>37.68843280209084</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>209.1976310043347</v>
@@ -25687,10 +25687,10 @@
         <v>256.4716527211199</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>48.58575455734925</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25800,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0470513617563</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>130.6052614420252</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.1681193445597</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>215.10004633612</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>395.4035163750517</v>
+        <v>151.2141893742984</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>37.68843280209084</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>209.1976310043347</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4716527211199</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>309.9964951452582</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>69.84106130010797</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>18.90553675425016</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,10 +26076,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>239.625141907721</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6002174196435</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>334204.0473274407</v>
+        <v>334204.0473274406</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>334204.0473274407</v>
+        <v>334204.0473274405</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>334204.0473274407</v>
+        <v>334204.0473274406</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>348837.3516884673</v>
+        <v>348837.3516884671</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>348837.3516884672</v>
+        <v>348837.3516884671</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>348837.3516884672</v>
+        <v>348837.3516884673</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>348837.3516884673</v>
+        <v>348837.3516884672</v>
       </c>
     </row>
   </sheetData>
@@ -26322,16 +26322,16 @@
         <v>393294.3542688369</v>
       </c>
       <c r="E2" t="n">
-        <v>235946.356951226</v>
+        <v>235946.3569512259</v>
       </c>
       <c r="F2" t="n">
         <v>235946.3569512259</v>
       </c>
       <c r="G2" t="n">
-        <v>235946.356951226</v>
+        <v>235946.3569512259</v>
       </c>
       <c r="H2" t="n">
-        <v>235946.356951226</v>
+        <v>235946.3569512259</v>
       </c>
       <c r="I2" t="n">
         <v>246116.3869980925</v>
@@ -26349,13 +26349,13 @@
         <v>246116.3869980925</v>
       </c>
       <c r="N2" t="n">
-        <v>246116.3869980925</v>
+        <v>246116.3869980924</v>
       </c>
       <c r="O2" t="n">
         <v>246116.3869980925</v>
       </c>
       <c r="P2" t="n">
-        <v>246116.3869980925</v>
+        <v>246116.3869980924</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3293.504824504877</v>
+        <v>3293.504824504878</v>
       </c>
       <c r="E3" t="n">
-        <v>548022.1493403782</v>
+        <v>548022.149340378</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>28213.30123183916</v>
+        <v>28213.30123183924</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>825.7217692837754</v>
+        <v>825.7217692837756</v>
       </c>
       <c r="M3" t="n">
         <v>146237.7281609485</v>
@@ -26417,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
         <v>298394.5984387407</v>
       </c>
       <c r="E4" t="n">
-        <v>20076.67410129963</v>
+        <v>20076.67410129962</v>
       </c>
       <c r="F4" t="n">
+        <v>20076.67410129961</v>
+      </c>
+      <c r="G4" t="n">
         <v>20076.67410129962</v>
       </c>
-      <c r="G4" t="n">
-        <v>20076.67410129963</v>
-      </c>
       <c r="H4" t="n">
-        <v>20076.67410129963</v>
+        <v>20076.67410129962</v>
       </c>
       <c r="I4" t="n">
-        <v>21169.97671689557</v>
+        <v>21169.97671689556</v>
       </c>
       <c r="J4" t="n">
-        <v>21169.97671689557</v>
+        <v>21169.97671689556</v>
       </c>
       <c r="K4" t="n">
         <v>21169.97671689557</v>
@@ -26456,7 +26456,7 @@
         <v>21169.97671689557</v>
       </c>
       <c r="O4" t="n">
-        <v>21169.97671689557</v>
+        <v>21169.97671689556</v>
       </c>
       <c r="P4" t="n">
         <v>21169.97671689557</v>
@@ -26478,19 +26478,19 @@
         <v>33884.00183384596</v>
       </c>
       <c r="E5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.0812096378</v>
       </c>
       <c r="F5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="G5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.0812096378</v>
       </c>
       <c r="H5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.0812096378</v>
       </c>
       <c r="I5" t="n">
-        <v>48607.74806882362</v>
+        <v>48607.74806882361</v>
       </c>
       <c r="J5" t="n">
         <v>48607.74806882362</v>
@@ -26508,7 +26508,7 @@
         <v>48607.74806882362</v>
       </c>
       <c r="O5" t="n">
-        <v>48607.74806882362</v>
+        <v>48607.74806882361</v>
       </c>
       <c r="P5" t="n">
         <v>48607.74806882362</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>60180.15835551085</v>
+        <v>60148.25163800929</v>
       </c>
       <c r="C6" t="n">
-        <v>60180.15835551091</v>
+        <v>60148.25163800929</v>
       </c>
       <c r="D6" t="n">
-        <v>57722.24917174534</v>
+        <v>57692.86205291544</v>
       </c>
       <c r="E6" t="n">
-        <v>-378203.5477000897</v>
+        <v>-378757.4281433115</v>
       </c>
       <c r="F6" t="n">
-        <v>169818.6016402885</v>
+        <v>169264.7211970665</v>
       </c>
       <c r="G6" t="n">
-        <v>169818.6016402885</v>
+        <v>169264.7211970666</v>
       </c>
       <c r="H6" t="n">
-        <v>169818.6016402886</v>
+        <v>169264.7211970665</v>
       </c>
       <c r="I6" t="n">
-        <v>148125.3609805342</v>
+        <v>147605.3806374683</v>
       </c>
       <c r="J6" t="n">
-        <v>176338.6622123733</v>
+        <v>175818.6818693076</v>
       </c>
       <c r="K6" t="n">
-        <v>176338.6622123733</v>
+        <v>175818.6818693076</v>
       </c>
       <c r="L6" t="n">
-        <v>175512.9404430895</v>
+        <v>174992.9601000238</v>
       </c>
       <c r="M6" t="n">
-        <v>30100.93405142482</v>
+        <v>29580.95370835911</v>
       </c>
       <c r="N6" t="n">
-        <v>176338.6622123733</v>
+        <v>175818.6818693075</v>
       </c>
       <c r="O6" t="n">
-        <v>176338.6622123733</v>
+        <v>175818.6818693076</v>
       </c>
       <c r="P6" t="n">
-        <v>176338.6622123733</v>
+        <v>175818.6818693075</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>2.662332998740292</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.701928093221</v>
       </c>
       <c r="F3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="G3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.701928093221</v>
       </c>
       <c r="H3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.701928093221</v>
       </c>
       <c r="I3" t="n">
         <v>492.6087511193742</v>
@@ -26795,31 +26795,31 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>3.262548922260275</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="F4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="G4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="H4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="I4" t="n">
-        <v>622.8433765529815</v>
+        <v>622.8433765529812</v>
       </c>
       <c r="J4" t="n">
-        <v>622.8433765529815</v>
+        <v>622.8433765529813</v>
       </c>
       <c r="K4" t="n">
         <v>622.8433765529813</v>
       </c>
       <c r="L4" t="n">
-        <v>622.8433765529815</v>
+        <v>622.8433765529813</v>
       </c>
       <c r="M4" t="n">
         <v>622.8433765529813</v>
@@ -26828,10 +26828,10 @@
         <v>622.8433765529813</v>
       </c>
       <c r="O4" t="n">
-        <v>622.8433765529815</v>
+        <v>622.8433765529812</v>
       </c>
       <c r="P4" t="n">
-        <v>622.8433765529815</v>
+        <v>622.8433765529813</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>2.662332998740292</v>
       </c>
       <c r="E3" t="n">
-        <v>464.0395950944809</v>
+        <v>464.0395950944807</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>25.90682302615306</v>
+        <v>25.90682302615318</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>3.262548922260275</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="E4" t="n">
-        <v>586.819345439674</v>
+        <v>586.8193454396737</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>3.262548922260275</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="M4" t="n">
-        <v>586.8193454396738</v>
+        <v>586.8193454396737</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>3.262548922260275</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="M4" t="n">
-        <v>586.819345439674</v>
+        <v>586.8193454396737</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27934,10 +27934,10 @@
         <v>120.0908620689655</v>
       </c>
       <c r="C9" t="n">
-        <v>105.3918965517241</v>
+        <v>102.5182434609973</v>
       </c>
       <c r="D9" t="n">
-        <v>94.13938596491228</v>
+        <v>90.876837042652</v>
       </c>
       <c r="E9" t="n">
         <v>89.91666160405553</v>
@@ -27946,10 +27946,10 @@
         <v>79.28745107773972</v>
       </c>
       <c r="G9" t="n">
-        <v>81.26296338663548</v>
+        <v>84.52551230889576</v>
       </c>
       <c r="H9" t="n">
-        <v>38.38933637062632</v>
+        <v>41.26298946135317</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>186.637883609537</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>167.573545479347</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>160.9566639482323</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>20.98777588476758</v>
+        <v>17.72522696250731</v>
       </c>
       <c r="S10" t="n">
         <v>157.5652879271376</v>
@@ -28070,16 +28070,16 @@
         <v>275.6484088706061</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>280.8234041260135</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>240.0641840291948</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>221.8829250567725</v>
+        <v>222.2718208883059</v>
       </c>
     </row>
     <row r="11">
@@ -31521,10 +31521,10 @@
         <v>0.1096105239129608</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313975</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9083906948817443</v>
+        <v>0.9083906948817444</v>
       </c>
       <c r="K8" t="n">
         <v>1.361442175632203</v>
@@ -31536,7 +31536,7 @@
         <v>1.879326147397211</v>
       </c>
       <c r="N8" t="n">
-        <v>1.909735609237094</v>
+        <v>1.909735609237095</v>
       </c>
       <c r="O8" t="n">
         <v>1.803309182076396</v>
@@ -31548,16 +31548,16 @@
         <v>1.155786985397852</v>
       </c>
       <c r="R8" t="n">
-        <v>0.6723126642497281</v>
+        <v>0.6723126642497282</v>
       </c>
       <c r="S8" t="n">
         <v>0.243891108377063</v>
       </c>
       <c r="T8" t="n">
-        <v>0.04685170935471608</v>
+        <v>0.04685170935471609</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0008562276980873292</v>
+        <v>0.0008562276980873294</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,19 +31594,19 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0057265275821961</v>
+        <v>0.005726527582196101</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05530620059647287</v>
+        <v>0.05530620059647288</v>
       </c>
       <c r="I9" t="n">
         <v>0.19716334000105</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5410312747723079</v>
+        <v>0.5410312747723081</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9247086227794465</v>
+        <v>0.9247086227794468</v>
       </c>
       <c r="L9" t="n">
         <v>1.243384859458851</v>
@@ -31624,10 +31624,10 @@
         <v>1.093515604709008</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.7309862225975232</v>
+        <v>0.7309862225975234</v>
       </c>
       <c r="R9" t="n">
-        <v>0.3555470370770527</v>
+        <v>0.3555470370770528</v>
       </c>
       <c r="S9" t="n">
         <v>0.106367738204388</v>
@@ -31676,31 +31676,31 @@
         <v>0.004800928358384133</v>
       </c>
       <c r="H10" t="n">
-        <v>0.04268461758636077</v>
+        <v>0.04268461758636078</v>
       </c>
       <c r="I10" t="n">
         <v>0.1443770091775883</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3394256349377581</v>
+        <v>0.3394256349377582</v>
       </c>
       <c r="K10" t="n">
         <v>0.55778058563772</v>
       </c>
       <c r="L10" t="n">
-        <v>0.7137671124819465</v>
+        <v>0.7137671124819467</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7525673425783417</v>
+        <v>0.7525673425783418</v>
       </c>
       <c r="N10" t="n">
-        <v>0.7346729732425469</v>
+        <v>0.734672973242547</v>
       </c>
       <c r="O10" t="n">
-        <v>0.6785894010559683</v>
+        <v>0.6785894010559684</v>
       </c>
       <c r="P10" t="n">
-        <v>0.5806504625449316</v>
+        <v>0.5806504625449317</v>
       </c>
       <c r="Q10" t="n">
         <v>0.4020122828097841</v>
@@ -31709,10 +31709,10 @@
         <v>0.2158671969142538</v>
       </c>
       <c r="S10" t="n">
-        <v>0.08366708784565799</v>
+        <v>0.083667087845658</v>
       </c>
       <c r="T10" t="n">
-        <v>0.02051305753127765</v>
+        <v>0.02051305753127766</v>
       </c>
       <c r="U10" t="n">
         <v>0.0002618688195482257</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H11" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J11" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184534</v>
       </c>
       <c r="Q11" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R11" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S11" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065035</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112861</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,46 +31834,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879932</v>
       </c>
       <c r="I12" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916864</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L12" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002368</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S12" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T12" t="n">
-        <v>4.046217659600662</v>
+        <v>4.04621765960066</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.841593640823841</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051974</v>
       </c>
       <c r="I13" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495697</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L13" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M13" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N13" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O13" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P13" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207636</v>
       </c>
       <c r="R13" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195197</v>
       </c>
       <c r="S13" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701865</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130047</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,28 +31995,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -32028,7 +32028,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U14" t="n">
         <v>0.1500950924520911</v>
@@ -32071,13 +32071,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I15" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
@@ -32089,25 +32089,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U15" t="n">
         <v>0.06604272567356906</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I16" t="n">
         <v>25.30901603495698</v>
@@ -32159,7 +32159,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
@@ -32183,10 +32183,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S16" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U16" t="n">
         <v>0.04590510768130049</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H17" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J17" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184534</v>
       </c>
       <c r="Q17" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R17" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S17" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065035</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112861</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,46 +32308,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879932</v>
       </c>
       <c r="I18" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K18" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L18" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742733</v>
+        <v>238.841315974274</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002368</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>4.046217659600662</v>
+        <v>4.04621765960066</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.841593640823841</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051974</v>
       </c>
       <c r="I19" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495697</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L19" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M19" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O19" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207636</v>
       </c>
       <c r="R19" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195197</v>
       </c>
       <c r="S19" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701865</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130047</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H20" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J20" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184534</v>
       </c>
       <c r="Q20" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R20" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S20" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065035</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112861</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,34 +32545,34 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879932</v>
       </c>
       <c r="I21" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K21" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L21" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917241</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002368</v>
       </c>
       <c r="R21" t="n">
         <v>62.32672164233622</v>
@@ -32581,10 +32581,10 @@
         <v>18.64606288183764</v>
       </c>
       <c r="T21" t="n">
-        <v>4.046217659600662</v>
+        <v>4.04621765960066</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.841593640823841</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051974</v>
       </c>
       <c r="I22" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495697</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L22" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M22" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O22" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207636</v>
       </c>
       <c r="R22" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195197</v>
       </c>
       <c r="S22" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701865</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130047</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,13 +32706,13 @@
         <v>20.28112310513081</v>
       </c>
       <c r="I23" t="n">
-        <v>76.34693016092334</v>
+        <v>76.34693016092332</v>
       </c>
       <c r="J23" t="n">
         <v>168.0786009661025</v>
       </c>
       <c r="K23" t="n">
-        <v>251.9062529656326</v>
+        <v>251.9062529656325</v>
       </c>
       <c r="L23" t="n">
         <v>312.511981878475</v>
@@ -32791,7 +32791,7 @@
         <v>100.1064632817211</v>
       </c>
       <c r="K24" t="n">
-        <v>77.83814466239559</v>
+        <v>171.0978904713396</v>
       </c>
       <c r="L24" t="n">
         <v>230.0622285298549</v>
@@ -32800,7 +32800,7 @@
         <v>268.4717693600589</v>
       </c>
       <c r="N24" t="n">
-        <v>275.5774182323375</v>
+        <v>182.3176724233938</v>
       </c>
       <c r="O24" t="n">
         <v>252.0994992638933</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8883108626742813</v>
+        <v>0.8883108626742812</v>
       </c>
       <c r="H25" t="n">
-        <v>7.897891124504071</v>
+        <v>7.89789112450407</v>
       </c>
       <c r="I25" t="n">
         <v>26.71393030660476</v>
@@ -32879,28 +32879,28 @@
         <v>139.2467655008421</v>
       </c>
       <c r="N25" t="n">
-        <v>135.9357886490563</v>
+        <v>135.9357886490562</v>
       </c>
       <c r="O25" t="n">
         <v>125.5587026623612</v>
       </c>
       <c r="P25" t="n">
-        <v>107.4371610638058</v>
+        <v>107.4371610638057</v>
       </c>
       <c r="Q25" t="n">
-        <v>74.38392141902551</v>
+        <v>74.3839214190255</v>
       </c>
       <c r="R25" t="n">
         <v>39.94168660715449</v>
       </c>
       <c r="S25" t="n">
-        <v>15.48083567042361</v>
+        <v>15.4808356704236</v>
       </c>
       <c r="T25" t="n">
-        <v>3.795510049608292</v>
+        <v>3.795510049608291</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04845331978223359</v>
+        <v>0.04845331978223358</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32943,13 +32943,13 @@
         <v>20.28112310513081</v>
       </c>
       <c r="I26" t="n">
-        <v>76.34693016092334</v>
+        <v>76.34693016092332</v>
       </c>
       <c r="J26" t="n">
         <v>168.0786009661025</v>
       </c>
       <c r="K26" t="n">
-        <v>251.9062529656326</v>
+        <v>251.9062529656325</v>
       </c>
       <c r="L26" t="n">
         <v>312.511981878475</v>
@@ -33028,7 +33028,7 @@
         <v>100.1064632817211</v>
       </c>
       <c r="K27" t="n">
-        <v>77.83814466239482</v>
+        <v>171.0978904713396</v>
       </c>
       <c r="L27" t="n">
         <v>230.0622285298549</v>
@@ -33037,10 +33037,10 @@
         <v>268.4717693600589</v>
       </c>
       <c r="N27" t="n">
-        <v>275.5774182323375</v>
+        <v>275.5774182323374</v>
       </c>
       <c r="O27" t="n">
-        <v>252.0994992638933</v>
+        <v>158.8397534549495</v>
       </c>
       <c r="P27" t="n">
         <v>202.3320736437294</v>
@@ -33095,10 +33095,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8883108626742813</v>
+        <v>0.8883108626742812</v>
       </c>
       <c r="H28" t="n">
-        <v>7.897891124504071</v>
+        <v>7.89789112450407</v>
       </c>
       <c r="I28" t="n">
         <v>26.71393030660476</v>
@@ -33116,28 +33116,28 @@
         <v>139.2467655008421</v>
       </c>
       <c r="N28" t="n">
-        <v>135.9357886490563</v>
+        <v>135.9357886490562</v>
       </c>
       <c r="O28" t="n">
         <v>125.5587026623612</v>
       </c>
       <c r="P28" t="n">
-        <v>107.4371610638058</v>
+        <v>107.4371610638057</v>
       </c>
       <c r="Q28" t="n">
-        <v>74.38392141902551</v>
+        <v>74.3839214190255</v>
       </c>
       <c r="R28" t="n">
         <v>39.94168660715449</v>
       </c>
       <c r="S28" t="n">
-        <v>15.48083567042361</v>
+        <v>15.4808356704236</v>
       </c>
       <c r="T28" t="n">
-        <v>3.795510049608292</v>
+        <v>3.795510049608291</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04845331978223359</v>
+        <v>0.04845331978223358</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33180,13 +33180,13 @@
         <v>20.28112310513081</v>
       </c>
       <c r="I29" t="n">
-        <v>76.34693016092334</v>
+        <v>76.34693016092332</v>
       </c>
       <c r="J29" t="n">
         <v>168.0786009661025</v>
       </c>
       <c r="K29" t="n">
-        <v>251.9062529656326</v>
+        <v>251.9062529656325</v>
       </c>
       <c r="L29" t="n">
         <v>312.511981878475</v>
@@ -33268,13 +33268,13 @@
         <v>171.0978904713396</v>
       </c>
       <c r="L30" t="n">
-        <v>136.8024827209109</v>
+        <v>230.0622285298549</v>
       </c>
       <c r="M30" t="n">
         <v>268.4717693600589</v>
       </c>
       <c r="N30" t="n">
-        <v>275.5774182323375</v>
+        <v>182.3176724233938</v>
       </c>
       <c r="O30" t="n">
         <v>252.0994992638933</v>
@@ -33332,10 +33332,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8883108626742813</v>
+        <v>0.8883108626742812</v>
       </c>
       <c r="H31" t="n">
-        <v>7.897891124504071</v>
+        <v>7.89789112450407</v>
       </c>
       <c r="I31" t="n">
         <v>26.71393030660476</v>
@@ -33353,28 +33353,28 @@
         <v>139.2467655008421</v>
       </c>
       <c r="N31" t="n">
-        <v>135.9357886490563</v>
+        <v>135.9357886490562</v>
       </c>
       <c r="O31" t="n">
         <v>125.5587026623612</v>
       </c>
       <c r="P31" t="n">
-        <v>107.4371610638058</v>
+        <v>107.4371610638057</v>
       </c>
       <c r="Q31" t="n">
-        <v>74.38392141902551</v>
+        <v>74.3839214190255</v>
       </c>
       <c r="R31" t="n">
         <v>39.94168660715449</v>
       </c>
       <c r="S31" t="n">
-        <v>15.48083567042361</v>
+        <v>15.4808356704236</v>
       </c>
       <c r="T31" t="n">
-        <v>3.795510049608292</v>
+        <v>3.795510049608291</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04845331978223359</v>
+        <v>0.04845331978223358</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33417,13 +33417,13 @@
         <v>20.28112310513081</v>
       </c>
       <c r="I32" t="n">
-        <v>76.34693016092334</v>
+        <v>76.34693016092332</v>
       </c>
       <c r="J32" t="n">
         <v>168.0786009661025</v>
       </c>
       <c r="K32" t="n">
-        <v>251.9062529656326</v>
+        <v>251.9062529656325</v>
       </c>
       <c r="L32" t="n">
         <v>312.511981878475</v>
@@ -33508,10 +33508,10 @@
         <v>230.0622285298549</v>
       </c>
       <c r="M33" t="n">
-        <v>240.9985280873967</v>
+        <v>268.4717693600589</v>
       </c>
       <c r="N33" t="n">
-        <v>275.5774182323375</v>
+        <v>275.5774182323374</v>
       </c>
       <c r="O33" t="n">
         <v>252.0994992638933</v>
@@ -33520,10 +33520,10 @@
         <v>202.3320736437294</v>
       </c>
       <c r="Q33" t="n">
-        <v>135.2536329488516</v>
+        <v>41.99388713990788</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>65.78650453628174</v>
       </c>
       <c r="S33" t="n">
         <v>19.6811137829297</v>
@@ -33569,10 +33569,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8883108626742813</v>
+        <v>0.8883108626742812</v>
       </c>
       <c r="H34" t="n">
-        <v>7.897891124504071</v>
+        <v>7.89789112450407</v>
       </c>
       <c r="I34" t="n">
         <v>26.71393030660476</v>
@@ -33590,28 +33590,28 @@
         <v>139.2467655008421</v>
       </c>
       <c r="N34" t="n">
-        <v>135.9357886490563</v>
+        <v>135.9357886490562</v>
       </c>
       <c r="O34" t="n">
         <v>125.5587026623612</v>
       </c>
       <c r="P34" t="n">
-        <v>107.4371610638058</v>
+        <v>107.4371610638057</v>
       </c>
       <c r="Q34" t="n">
-        <v>74.38392141902551</v>
+        <v>74.3839214190255</v>
       </c>
       <c r="R34" t="n">
         <v>39.94168660715449</v>
       </c>
       <c r="S34" t="n">
-        <v>15.48083567042361</v>
+        <v>15.4808356704236</v>
       </c>
       <c r="T34" t="n">
-        <v>3.795510049608292</v>
+        <v>3.795510049608291</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04845331978223359</v>
+        <v>0.04845331978223358</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33654,13 +33654,13 @@
         <v>20.28112310513081</v>
       </c>
       <c r="I35" t="n">
-        <v>76.34693016092334</v>
+        <v>76.34693016092332</v>
       </c>
       <c r="J35" t="n">
         <v>168.0786009661025</v>
       </c>
       <c r="K35" t="n">
-        <v>251.9062529656326</v>
+        <v>251.9062529656325</v>
       </c>
       <c r="L35" t="n">
         <v>312.511981878475</v>
@@ -33748,10 +33748,10 @@
         <v>268.4717693600589</v>
       </c>
       <c r="N36" t="n">
-        <v>182.3176724233936</v>
+        <v>275.5774182323374</v>
       </c>
       <c r="O36" t="n">
-        <v>252.0994992638933</v>
+        <v>158.8397534549495</v>
       </c>
       <c r="P36" t="n">
         <v>202.3320736437294</v>
@@ -33806,10 +33806,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8883108626742813</v>
+        <v>0.8883108626742812</v>
       </c>
       <c r="H37" t="n">
-        <v>7.897891124504071</v>
+        <v>7.89789112450407</v>
       </c>
       <c r="I37" t="n">
         <v>26.71393030660476</v>
@@ -33827,28 +33827,28 @@
         <v>139.2467655008421</v>
       </c>
       <c r="N37" t="n">
-        <v>135.9357886490563</v>
+        <v>135.9357886490562</v>
       </c>
       <c r="O37" t="n">
         <v>125.5587026623612</v>
       </c>
       <c r="P37" t="n">
-        <v>107.4371610638058</v>
+        <v>107.4371610638057</v>
       </c>
       <c r="Q37" t="n">
-        <v>74.38392141902551</v>
+        <v>74.3839214190255</v>
       </c>
       <c r="R37" t="n">
         <v>39.94168660715449</v>
       </c>
       <c r="S37" t="n">
-        <v>15.48083567042361</v>
+        <v>15.4808356704236</v>
       </c>
       <c r="T37" t="n">
-        <v>3.795510049608292</v>
+        <v>3.795510049608291</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04845331978223359</v>
+        <v>0.04845331978223358</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33891,13 +33891,13 @@
         <v>20.28112310513081</v>
       </c>
       <c r="I38" t="n">
-        <v>76.34693016092334</v>
+        <v>76.34693016092332</v>
       </c>
       <c r="J38" t="n">
         <v>168.0786009661025</v>
       </c>
       <c r="K38" t="n">
-        <v>251.9062529656326</v>
+        <v>251.9062529656325</v>
       </c>
       <c r="L38" t="n">
         <v>312.511981878475</v>
@@ -33973,7 +33973,7 @@
         <v>36.480931097048</v>
       </c>
       <c r="J39" t="n">
-        <v>100.1064632817211</v>
+        <v>6.846717472777513</v>
       </c>
       <c r="K39" t="n">
         <v>171.0978904713396</v>
@@ -33985,7 +33985,7 @@
         <v>268.4717693600589</v>
       </c>
       <c r="N39" t="n">
-        <v>182.3176724233936</v>
+        <v>275.5774182323374</v>
       </c>
       <c r="O39" t="n">
         <v>252.0994992638933</v>
@@ -34043,10 +34043,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8883108626742813</v>
+        <v>0.8883108626742812</v>
       </c>
       <c r="H40" t="n">
-        <v>7.897891124504071</v>
+        <v>7.89789112450407</v>
       </c>
       <c r="I40" t="n">
         <v>26.71393030660476</v>
@@ -34064,28 +34064,28 @@
         <v>139.2467655008421</v>
       </c>
       <c r="N40" t="n">
-        <v>135.9357886490563</v>
+        <v>135.9357886490562</v>
       </c>
       <c r="O40" t="n">
         <v>125.5587026623612</v>
       </c>
       <c r="P40" t="n">
-        <v>107.4371610638058</v>
+        <v>107.4371610638057</v>
       </c>
       <c r="Q40" t="n">
-        <v>74.38392141902551</v>
+        <v>74.3839214190255</v>
       </c>
       <c r="R40" t="n">
         <v>39.94168660715449</v>
       </c>
       <c r="S40" t="n">
-        <v>15.48083567042361</v>
+        <v>15.4808356704236</v>
       </c>
       <c r="T40" t="n">
-        <v>3.795510049608292</v>
+        <v>3.795510049608291</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04845331978223359</v>
+        <v>0.04845331978223358</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34128,13 +34128,13 @@
         <v>20.28112310513081</v>
       </c>
       <c r="I41" t="n">
-        <v>76.34693016092334</v>
+        <v>76.34693016092332</v>
       </c>
       <c r="J41" t="n">
         <v>168.0786009661025</v>
       </c>
       <c r="K41" t="n">
-        <v>251.9062529656326</v>
+        <v>251.9062529656325</v>
       </c>
       <c r="L41" t="n">
         <v>312.511981878475</v>
@@ -34210,7 +34210,7 @@
         <v>36.480931097048</v>
       </c>
       <c r="J42" t="n">
-        <v>100.1064632817211</v>
+        <v>6.846717472777527</v>
       </c>
       <c r="K42" t="n">
         <v>171.0978904713396</v>
@@ -34222,10 +34222,10 @@
         <v>268.4717693600589</v>
       </c>
       <c r="N42" t="n">
-        <v>275.5774182323375</v>
+        <v>275.5774182323374</v>
       </c>
       <c r="O42" t="n">
-        <v>158.8397534549495</v>
+        <v>252.0994992638933</v>
       </c>
       <c r="P42" t="n">
         <v>202.3320736437294</v>
@@ -34280,10 +34280,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8883108626742813</v>
+        <v>0.8883108626742812</v>
       </c>
       <c r="H43" t="n">
-        <v>7.897891124504071</v>
+        <v>7.89789112450407</v>
       </c>
       <c r="I43" t="n">
         <v>26.71393030660476</v>
@@ -34301,28 +34301,28 @@
         <v>139.2467655008421</v>
       </c>
       <c r="N43" t="n">
-        <v>135.9357886490563</v>
+        <v>135.9357886490562</v>
       </c>
       <c r="O43" t="n">
         <v>125.5587026623612</v>
       </c>
       <c r="P43" t="n">
-        <v>107.4371610638058</v>
+        <v>107.4371610638057</v>
       </c>
       <c r="Q43" t="n">
-        <v>74.38392141902551</v>
+        <v>74.3839214190255</v>
       </c>
       <c r="R43" t="n">
         <v>39.94168660715449</v>
       </c>
       <c r="S43" t="n">
-        <v>15.48083567042361</v>
+        <v>15.4808356704236</v>
       </c>
       <c r="T43" t="n">
-        <v>3.795510049608292</v>
+        <v>3.795510049608291</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04845331978223359</v>
+        <v>0.04845331978223358</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,13 +34365,13 @@
         <v>20.28112310513081</v>
       </c>
       <c r="I44" t="n">
-        <v>76.34693016092334</v>
+        <v>76.34693016092332</v>
       </c>
       <c r="J44" t="n">
         <v>168.0786009661025</v>
       </c>
       <c r="K44" t="n">
-        <v>251.9062529656326</v>
+        <v>251.9062529656325</v>
       </c>
       <c r="L44" t="n">
         <v>312.511981878475</v>
@@ -34450,7 +34450,7 @@
         <v>100.1064632817211</v>
       </c>
       <c r="K45" t="n">
-        <v>77.83814466239559</v>
+        <v>171.0978904713396</v>
       </c>
       <c r="L45" t="n">
         <v>230.0622285298549</v>
@@ -34459,13 +34459,13 @@
         <v>268.4717693600589</v>
       </c>
       <c r="N45" t="n">
-        <v>275.5774182323375</v>
+        <v>275.5774182323374</v>
       </c>
       <c r="O45" t="n">
         <v>252.0994992638933</v>
       </c>
       <c r="P45" t="n">
-        <v>202.3320736437294</v>
+        <v>109.0723278347857</v>
       </c>
       <c r="Q45" t="n">
         <v>135.2536329488516</v>
@@ -34517,10 +34517,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8883108626742813</v>
+        <v>0.8883108626742812</v>
       </c>
       <c r="H46" t="n">
-        <v>7.897891124504071</v>
+        <v>7.89789112450407</v>
       </c>
       <c r="I46" t="n">
         <v>26.71393030660476</v>
@@ -34538,28 +34538,28 @@
         <v>139.2467655008421</v>
       </c>
       <c r="N46" t="n">
-        <v>135.9357886490563</v>
+        <v>135.9357886490562</v>
       </c>
       <c r="O46" t="n">
         <v>125.5587026623612</v>
       </c>
       <c r="P46" t="n">
-        <v>107.4371610638058</v>
+        <v>107.4371610638057</v>
       </c>
       <c r="Q46" t="n">
-        <v>74.38392141902551</v>
+        <v>74.3839214190255</v>
       </c>
       <c r="R46" t="n">
         <v>39.94168660715449</v>
       </c>
       <c r="S46" t="n">
-        <v>15.48083567042361</v>
+        <v>15.4808356704236</v>
       </c>
       <c r="T46" t="n">
-        <v>3.795510049608292</v>
+        <v>3.795510049608291</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04845331978223359</v>
+        <v>0.04845331978223358</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9083906948817447</v>
+        <v>0.9083906948817446</v>
       </c>
       <c r="K8" t="n">
         <v>1.361442175632203</v>
       </c>
       <c r="L8" t="n">
-        <v>1.688989405823955</v>
+        <v>1.688989405823956</v>
       </c>
       <c r="M8" t="n">
-        <v>1.879326147397211</v>
+        <v>1.879326147397212</v>
       </c>
       <c r="N8" t="n">
-        <v>1.909735609237093</v>
+        <v>1.909735609237094</v>
       </c>
       <c r="O8" t="n">
         <v>1.803309182076395</v>
@@ -35193,10 +35193,10 @@
         <v>1.539082665869758</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.155786985397851</v>
+        <v>1.155786985397853</v>
       </c>
       <c r="R8" t="n">
-        <v>0.6723126642497288</v>
+        <v>0.672312664249727</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,22 +35248,22 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.19716334000105</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5410312747723079</v>
+        <v>0.5410312747723078</v>
       </c>
       <c r="K9" t="n">
-        <v>3.262548922260275</v>
+        <v>0.9247086227794465</v>
       </c>
       <c r="L9" t="n">
         <v>1.243384859458851</v>
       </c>
       <c r="M9" t="n">
-        <v>1.450971484313459</v>
+        <v>1.45097148431346</v>
       </c>
       <c r="N9" t="n">
-        <v>1.489374382002835</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O9" t="n">
         <v>1.362486586628911</v>
@@ -35272,10 +35272,10 @@
         <v>1.093515604709008</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.7309862225975223</v>
+        <v>0.7309862225975241</v>
       </c>
       <c r="R9" t="n">
-        <v>1.54691285382172</v>
+        <v>0.8193675710433226</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,25 +35330,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3.262548922260275</v>
+        <v>0.3394256349377582</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5577805856377203</v>
+        <v>0.5577805856377201</v>
       </c>
       <c r="L10" t="n">
-        <v>0.7137671124819462</v>
+        <v>0.7137671124819467</v>
       </c>
       <c r="M10" t="n">
         <v>0.7525673425783417</v>
       </c>
       <c r="N10" t="n">
-        <v>0.7346729732425468</v>
+        <v>0.7671880881493482</v>
       </c>
       <c r="O10" t="n">
-        <v>0.6785894010559685</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="P10" t="n">
-        <v>2.955900271048865</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="Q10" t="n">
         <v>3.262548922260276</v>
@@ -35406,22 +35406,22 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J11" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.658232706284</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
         <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994719</v>
       </c>
       <c r="O11" t="n">
         <v>316.1166813548411</v>
@@ -35433,7 +35433,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R11" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916864</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L12" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N12" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P12" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R12" t="n">
         <v>62.32672164233622</v>
@@ -35567,16 +35567,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K13" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L13" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M13" t="n">
-        <v>590.0818943619342</v>
+        <v>396.5699410103173</v>
       </c>
       <c r="N13" t="n">
         <v>128.7867795998884</v>
@@ -35585,13 +35585,13 @@
         <v>118.9554357048098</v>
       </c>
       <c r="P13" t="n">
-        <v>171.8378092578134</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q13" t="n">
         <v>240.36368292423</v>
       </c>
       <c r="R13" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027013</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35643,28 +35643,28 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J14" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
-        <v>334.7730322994723</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
         <v>316.1166813548409</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916794</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415861</v>
+        <v>162.0996687415862</v>
       </c>
       <c r="L15" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646688</v>
       </c>
       <c r="M15" t="n">
         <v>254.3525508108055</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L16" t="n">
-        <v>125.1220218366645</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M16" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619339</v>
       </c>
       <c r="N16" t="n">
         <v>575.5128433954892</v>
       </c>
       <c r="O16" t="n">
-        <v>164.7144797430606</v>
+        <v>277.1599674523491</v>
       </c>
       <c r="P16" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R16" t="n">
         <v>16.63746735027015</v>
@@ -35880,28 +35880,28 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J17" t="n">
-        <v>159.2391669125714</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994719</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184538</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562353</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K18" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L18" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811312</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742731</v>
+        <v>238.841315974274</v>
       </c>
       <c r="P18" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R18" t="n">
         <v>62.32672164233622</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L19" t="n">
-        <v>547.5562458447062</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M19" t="n">
-        <v>131.9236286247772</v>
+        <v>138.4493337284794</v>
       </c>
       <c r="N19" t="n">
-        <v>247.0585519302313</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O19" t="n">
         <v>542.8637682561043</v>
@@ -36065,7 +36065,7 @@
         <v>240.36368292423</v>
       </c>
       <c r="R19" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027013</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,25 +36117,25 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J20" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816035</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548407</v>
       </c>
       <c r="P20" t="n">
         <v>269.7982739184536</v>
@@ -36144,7 +36144,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R20" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K21" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L21" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811312</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917241</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R21" t="n">
         <v>62.32672164233622</v>
@@ -36278,31 +36278,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K22" t="n">
-        <v>375.3116718572664</v>
+        <v>202.7781168554911</v>
       </c>
       <c r="L22" t="n">
         <v>547.556245844706</v>
       </c>
       <c r="M22" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
-        <v>198.8376634256983</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O22" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P22" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>240.36368292423</v>
+        <v>70.47199114207615</v>
       </c>
       <c r="R22" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027013</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>75.93430868179193</v>
+        <v>75.93430868179192</v>
       </c>
       <c r="J23" t="n">
         <v>168.0786009661025</v>
@@ -36363,25 +36363,25 @@
         <v>251.9062529656326</v>
       </c>
       <c r="L23" t="n">
-        <v>312.5119818784751</v>
+        <v>312.511981878475</v>
       </c>
       <c r="M23" t="n">
         <v>347.7297944522202</v>
       </c>
       <c r="N23" t="n">
-        <v>353.3564260667649</v>
+        <v>353.3564260667647</v>
       </c>
       <c r="O23" t="n">
         <v>333.6644531262893</v>
       </c>
       <c r="P23" t="n">
-        <v>284.7748911433362</v>
+        <v>284.7748911433364</v>
       </c>
       <c r="Q23" t="n">
         <v>213.8540835073059</v>
       </c>
       <c r="R23" t="n">
-        <v>124.3973244723716</v>
+        <v>124.3973244723711</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>36.48093109704801</v>
+        <v>36.48093109704799</v>
       </c>
       <c r="J24" t="n">
         <v>100.1064632817211</v>
       </c>
       <c r="K24" t="n">
-        <v>77.83814466239559</v>
+        <v>171.0978904713396</v>
       </c>
       <c r="L24" t="n">
         <v>230.0622285298549</v>
@@ -36448,10 +36448,10 @@
         <v>268.4717693600589</v>
       </c>
       <c r="N24" t="n">
-        <v>275.5774182323375</v>
+        <v>182.3176724233938</v>
       </c>
       <c r="O24" t="n">
-        <v>252.0994992638934</v>
+        <v>252.0994992638932</v>
       </c>
       <c r="P24" t="n">
         <v>202.3320736437295</v>
@@ -36515,31 +36515,31 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>150.2578054301523</v>
+        <v>62.80357799107167</v>
       </c>
       <c r="K25" t="n">
         <v>380.7393636322539</v>
       </c>
       <c r="L25" t="n">
-        <v>389.0934764273658</v>
+        <v>132.0675986197745</v>
       </c>
       <c r="M25" t="n">
-        <v>139.2467655008421</v>
+        <v>603.3718838654006</v>
       </c>
       <c r="N25" t="n">
-        <v>135.9357886490563</v>
+        <v>582.6618524446569</v>
       </c>
       <c r="O25" t="n">
-        <v>549.4670352136557</v>
+        <v>504.0047146988279</v>
       </c>
       <c r="P25" t="n">
-        <v>458.4542256803127</v>
+        <v>107.4371610638059</v>
       </c>
       <c r="Q25" t="n">
-        <v>244.2756132011791</v>
+        <v>74.38392141902568</v>
       </c>
       <c r="R25" t="n">
-        <v>18.73804352547266</v>
+        <v>18.73804352547265</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>75.93430868179193</v>
+        <v>75.93430868179192</v>
       </c>
       <c r="J26" t="n">
-        <v>168.0786009661025</v>
+        <v>168.0786009661028</v>
       </c>
       <c r="K26" t="n">
         <v>251.9062529656326</v>
       </c>
       <c r="L26" t="n">
-        <v>312.511981878475</v>
+        <v>312.5119818784751</v>
       </c>
       <c r="M26" t="n">
         <v>347.7297944522204</v>
       </c>
       <c r="N26" t="n">
-        <v>353.3564260667649</v>
+        <v>353.3564260667647</v>
       </c>
       <c r="O26" t="n">
-        <v>333.6644531262893</v>
+        <v>333.6644531262891</v>
       </c>
       <c r="P26" t="n">
-        <v>284.7748911433362</v>
+        <v>284.7748911433364</v>
       </c>
       <c r="Q26" t="n">
         <v>213.8540835073059</v>
       </c>
       <c r="R26" t="n">
-        <v>124.3973244723716</v>
+        <v>124.3973244723711</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>36.48093109704803</v>
+        <v>36.480931097048</v>
       </c>
       <c r="J27" t="n">
-        <v>100.1064632817212</v>
+        <v>100.1064632817211</v>
       </c>
       <c r="K27" t="n">
-        <v>77.83814466239482</v>
+        <v>171.0978904713396</v>
       </c>
       <c r="L27" t="n">
-        <v>230.062228529855</v>
+        <v>230.0622285298549</v>
       </c>
       <c r="M27" t="n">
         <v>268.4717693600589</v>
@@ -36688,7 +36688,7 @@
         <v>275.5774182323375</v>
       </c>
       <c r="O27" t="n">
-        <v>252.0994992638934</v>
+        <v>158.8397534549495</v>
       </c>
       <c r="P27" t="n">
         <v>202.3320736437295</v>
@@ -36697,7 +36697,7 @@
         <v>135.2536329488516</v>
       </c>
       <c r="R27" t="n">
-        <v>65.78650453628188</v>
+        <v>65.78650453628165</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>150.2578054301523</v>
+        <v>62.80357799107168</v>
       </c>
       <c r="K28" t="n">
-        <v>380.7393636322539</v>
+        <v>103.2055711361574</v>
       </c>
       <c r="L28" t="n">
-        <v>253.1676914350079</v>
+        <v>364.1390706010438</v>
       </c>
       <c r="M28" t="n">
         <v>603.3718838654007</v>
@@ -36767,16 +36767,16 @@
         <v>582.6618524446569</v>
       </c>
       <c r="O28" t="n">
-        <v>125.5587026623612</v>
+        <v>549.4670352136554</v>
       </c>
       <c r="P28" t="n">
         <v>107.4371610638059</v>
       </c>
       <c r="Q28" t="n">
-        <v>244.2756132011791</v>
+        <v>74.38392141902568</v>
       </c>
       <c r="R28" t="n">
-        <v>18.73804352547266</v>
+        <v>18.73804352547265</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>75.93430868179193</v>
+        <v>75.93430868179192</v>
       </c>
       <c r="J29" t="n">
-        <v>168.0786009661025</v>
+        <v>168.0786009661028</v>
       </c>
       <c r="K29" t="n">
         <v>251.9062529656326</v>
       </c>
       <c r="L29" t="n">
-        <v>312.5119818784751</v>
+        <v>312.5119818784749</v>
       </c>
       <c r="M29" t="n">
-        <v>347.7297944522202</v>
+        <v>347.7297944522204</v>
       </c>
       <c r="N29" t="n">
-        <v>353.3564260667652</v>
+        <v>353.3564260667647</v>
       </c>
       <c r="O29" t="n">
-        <v>333.6644531262891</v>
+        <v>333.6644531262893</v>
       </c>
       <c r="P29" t="n">
-        <v>284.7748911433362</v>
+        <v>284.7748911433364</v>
       </c>
       <c r="Q29" t="n">
         <v>213.8540835073059</v>
       </c>
       <c r="R29" t="n">
-        <v>124.3973244723716</v>
+        <v>124.3973244723711</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,16 +36916,16 @@
         <v>171.0978904713396</v>
       </c>
       <c r="L30" t="n">
-        <v>136.8024827209109</v>
+        <v>230.0622285298549</v>
       </c>
       <c r="M30" t="n">
         <v>268.4717693600589</v>
       </c>
       <c r="N30" t="n">
-        <v>275.5774182323375</v>
+        <v>182.3176724233938</v>
       </c>
       <c r="O30" t="n">
-        <v>252.0994992638934</v>
+        <v>252.0994992638932</v>
       </c>
       <c r="P30" t="n">
         <v>202.3320736437295</v>
@@ -36989,31 +36989,31 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>150.2578054301524</v>
+        <v>62.80357799107168</v>
       </c>
       <c r="K31" t="n">
         <v>380.7393636322539</v>
       </c>
       <c r="L31" t="n">
-        <v>554.501822627816</v>
+        <v>554.5018226278161</v>
       </c>
       <c r="M31" t="n">
         <v>139.246765500842</v>
       </c>
       <c r="N31" t="n">
-        <v>135.9357886490563</v>
+        <v>227.8733616698403</v>
       </c>
       <c r="O31" t="n">
-        <v>384.0586890132051</v>
+        <v>549.4670352136554</v>
       </c>
       <c r="P31" t="n">
-        <v>458.4542256803127</v>
+        <v>458.4542256803124</v>
       </c>
       <c r="Q31" t="n">
-        <v>244.2756132011791</v>
+        <v>74.38392141902568</v>
       </c>
       <c r="R31" t="n">
-        <v>18.73804352547266</v>
+        <v>18.73804352547265</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>75.93430868179193</v>
+        <v>75.93430868179192</v>
       </c>
       <c r="J32" t="n">
-        <v>168.0786009661024</v>
+        <v>168.0786009661025</v>
       </c>
       <c r="K32" t="n">
         <v>251.9062529656326</v>
       </c>
       <c r="L32" t="n">
-        <v>312.5119818784751</v>
+        <v>312.5119818784749</v>
       </c>
       <c r="M32" t="n">
-        <v>347.7297944522202</v>
+        <v>347.7297944522204</v>
       </c>
       <c r="N32" t="n">
-        <v>353.3564260667649</v>
+        <v>353.3564260667647</v>
       </c>
       <c r="O32" t="n">
         <v>333.6644531262893</v>
       </c>
       <c r="P32" t="n">
-        <v>284.7748911433362</v>
+        <v>284.7748911433364</v>
       </c>
       <c r="Q32" t="n">
         <v>213.8540835073059</v>
       </c>
       <c r="R32" t="n">
-        <v>124.3973244723716</v>
+        <v>124.3973244723711</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>36.48093109704801</v>
+        <v>36.480931097048</v>
       </c>
       <c r="J33" t="n">
         <v>100.1064632817211</v>
@@ -37153,10 +37153,10 @@
         <v>171.0978904713396</v>
       </c>
       <c r="L33" t="n">
-        <v>230.062228529855</v>
+        <v>230.0622285298549</v>
       </c>
       <c r="M33" t="n">
-        <v>240.9985280873967</v>
+        <v>268.4717693600589</v>
       </c>
       <c r="N33" t="n">
         <v>275.5774182323375</v>
@@ -37168,10 +37168,10 @@
         <v>202.3320736437295</v>
       </c>
       <c r="Q33" t="n">
-        <v>135.2536329488516</v>
+        <v>41.99388713990788</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>65.78650453628165</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,31 +37226,31 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>150.2578054301523</v>
+        <v>150.2578054301524</v>
       </c>
       <c r="K34" t="n">
-        <v>380.7393636322539</v>
+        <v>215.331017431804</v>
       </c>
       <c r="L34" t="n">
         <v>554.501822627816</v>
       </c>
       <c r="M34" t="n">
-        <v>139.246765500842</v>
+        <v>139.2467655008421</v>
       </c>
       <c r="N34" t="n">
-        <v>135.9357886490563</v>
+        <v>135.9357886490561</v>
       </c>
       <c r="O34" t="n">
-        <v>384.0586890132056</v>
+        <v>549.4670352136554</v>
       </c>
       <c r="P34" t="n">
-        <v>458.4542256803127</v>
+        <v>458.4542256803124</v>
       </c>
       <c r="Q34" t="n">
         <v>244.2756132011791</v>
       </c>
       <c r="R34" t="n">
-        <v>18.73804352547266</v>
+        <v>18.73804352547265</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,10 +37302,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>75.93430868179193</v>
+        <v>75.93430868179192</v>
       </c>
       <c r="J35" t="n">
-        <v>168.0786009661026</v>
+        <v>168.0786009661025</v>
       </c>
       <c r="K35" t="n">
         <v>251.9062529656326</v>
@@ -37314,22 +37314,22 @@
         <v>312.511981878475</v>
       </c>
       <c r="M35" t="n">
-        <v>347.7297944522203</v>
+        <v>347.7297944522202</v>
       </c>
       <c r="N35" t="n">
         <v>353.3564260667647</v>
       </c>
       <c r="O35" t="n">
-        <v>333.6644531262891</v>
+        <v>333.6644531262893</v>
       </c>
       <c r="P35" t="n">
-        <v>284.7748911433362</v>
+        <v>284.7748911433364</v>
       </c>
       <c r="Q35" t="n">
         <v>213.8540835073059</v>
       </c>
       <c r="R35" t="n">
-        <v>124.3973244723716</v>
+        <v>124.3973244723711</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37396,10 +37396,10 @@
         <v>268.4717693600589</v>
       </c>
       <c r="N36" t="n">
-        <v>182.3176724233936</v>
+        <v>275.5774182323375</v>
       </c>
       <c r="O36" t="n">
-        <v>252.0994992638934</v>
+        <v>158.8397534549495</v>
       </c>
       <c r="P36" t="n">
         <v>202.3320736437295</v>
@@ -37463,31 +37463,31 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>150.2578054301524</v>
+        <v>62.80357799107168</v>
       </c>
       <c r="K37" t="n">
         <v>380.7393636322539</v>
       </c>
       <c r="L37" t="n">
-        <v>132.0675986197746</v>
+        <v>132.0675986197745</v>
       </c>
       <c r="M37" t="n">
-        <v>139.2467655008421</v>
+        <v>603.3718838654006</v>
       </c>
       <c r="N37" t="n">
-        <v>392.9616664566471</v>
+        <v>582.6618524446569</v>
       </c>
       <c r="O37" t="n">
-        <v>549.4670352136557</v>
+        <v>125.5587026623612</v>
       </c>
       <c r="P37" t="n">
         <v>458.4542256803127</v>
       </c>
       <c r="Q37" t="n">
-        <v>244.2756132011791</v>
+        <v>101.8128688389861</v>
       </c>
       <c r="R37" t="n">
-        <v>18.73804352547266</v>
+        <v>18.73804352547265</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,16 +37539,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>75.93430868179193</v>
+        <v>75.93430868179192</v>
       </c>
       <c r="J38" t="n">
-        <v>168.0786009661026</v>
+        <v>168.0786009661028</v>
       </c>
       <c r="K38" t="n">
-        <v>251.9062529656327</v>
+        <v>251.9062529656326</v>
       </c>
       <c r="L38" t="n">
-        <v>312.511981878475</v>
+        <v>312.5119818784751</v>
       </c>
       <c r="M38" t="n">
         <v>347.7297944522204</v>
@@ -37560,13 +37560,13 @@
         <v>333.6644531262891</v>
       </c>
       <c r="P38" t="n">
-        <v>284.7748911433362</v>
+        <v>284.7748911433364</v>
       </c>
       <c r="Q38" t="n">
         <v>213.8540835073059</v>
       </c>
       <c r="R38" t="n">
-        <v>124.3973244723716</v>
+        <v>124.3973244723711</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>36.480931097048</v>
       </c>
       <c r="J39" t="n">
-        <v>100.1064632817211</v>
+        <v>6.846717472777513</v>
       </c>
       <c r="K39" t="n">
         <v>171.0978904713396</v>
@@ -37633,10 +37633,10 @@
         <v>268.4717693600589</v>
       </c>
       <c r="N39" t="n">
-        <v>182.3176724233936</v>
+        <v>275.5774182323374</v>
       </c>
       <c r="O39" t="n">
-        <v>252.0994992638934</v>
+        <v>252.0994992638932</v>
       </c>
       <c r="P39" t="n">
         <v>202.3320736437295</v>
@@ -37700,31 +37700,31 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>150.2578054301524</v>
+        <v>62.80357799107168</v>
       </c>
       <c r="K40" t="n">
-        <v>380.7393636322539</v>
+        <v>278.4934050833253</v>
       </c>
       <c r="L40" t="n">
-        <v>132.0675986197746</v>
+        <v>132.0675986197745</v>
       </c>
       <c r="M40" t="n">
-        <v>603.3718838654008</v>
+        <v>139.2467655008421</v>
       </c>
       <c r="N40" t="n">
-        <v>352.7448806433829</v>
+        <v>582.6618524446569</v>
       </c>
       <c r="O40" t="n">
-        <v>125.5587026623612</v>
+        <v>549.4670352136554</v>
       </c>
       <c r="P40" t="n">
-        <v>458.4542256803127</v>
+        <v>458.4542256803124</v>
       </c>
       <c r="Q40" t="n">
         <v>244.2756132011791</v>
       </c>
       <c r="R40" t="n">
-        <v>18.73804352547266</v>
+        <v>18.73804352547265</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>75.93430868179193</v>
+        <v>75.93430868179192</v>
       </c>
       <c r="J41" t="n">
         <v>168.0786009661025</v>
@@ -37788,22 +37788,22 @@
         <v>312.511981878475</v>
       </c>
       <c r="M41" t="n">
-        <v>347.7297944522204</v>
+        <v>347.7297944522202</v>
       </c>
       <c r="N41" t="n">
-        <v>353.3564260667649</v>
+        <v>353.3564260667647</v>
       </c>
       <c r="O41" t="n">
-        <v>333.6644531262893</v>
+        <v>333.6644531262896</v>
       </c>
       <c r="P41" t="n">
-        <v>284.7748911433362</v>
+        <v>284.7748911433364</v>
       </c>
       <c r="Q41" t="n">
         <v>213.8540835073059</v>
       </c>
       <c r="R41" t="n">
-        <v>124.3973244723716</v>
+        <v>124.3973244723711</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>36.48093109704801</v>
+        <v>36.48093109704799</v>
       </c>
       <c r="J42" t="n">
-        <v>100.1064632817211</v>
+        <v>6.846717472777527</v>
       </c>
       <c r="K42" t="n">
         <v>171.0978904713396</v>
       </c>
       <c r="L42" t="n">
-        <v>230.062228529855</v>
+        <v>230.0622285298549</v>
       </c>
       <c r="M42" t="n">
         <v>268.4717693600589</v>
@@ -37873,7 +37873,7 @@
         <v>275.5774182323374</v>
       </c>
       <c r="O42" t="n">
-        <v>158.8397534549495</v>
+        <v>252.0994992638932</v>
       </c>
       <c r="P42" t="n">
         <v>202.3320736437295</v>
@@ -37937,31 +37937,31 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>62.80357799107168</v>
+        <v>62.80357799107167</v>
       </c>
       <c r="K43" t="n">
-        <v>336.7511516606799</v>
+        <v>380.7393636322539</v>
       </c>
       <c r="L43" t="n">
         <v>554.5018226278161</v>
       </c>
       <c r="M43" t="n">
-        <v>603.3718838654007</v>
+        <v>139.246765500842</v>
       </c>
       <c r="N43" t="n">
-        <v>582.6618524446569</v>
+        <v>227.8733616698398</v>
       </c>
       <c r="O43" t="n">
-        <v>125.5587026623612</v>
+        <v>549.4670352136554</v>
       </c>
       <c r="P43" t="n">
-        <v>107.4371610638059</v>
+        <v>458.4542256803124</v>
       </c>
       <c r="Q43" t="n">
         <v>74.38392141902568</v>
       </c>
       <c r="R43" t="n">
-        <v>18.73804352547266</v>
+        <v>18.73804352547265</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>75.93430868179193</v>
+        <v>75.93430868179192</v>
       </c>
       <c r="J44" t="n">
-        <v>168.0786009661024</v>
+        <v>168.0786009661028</v>
       </c>
       <c r="K44" t="n">
         <v>251.9062529656326</v>
       </c>
       <c r="L44" t="n">
-        <v>312.5119818784751</v>
+        <v>312.5119818784749</v>
       </c>
       <c r="M44" t="n">
-        <v>347.7297944522202</v>
+        <v>347.7297944522204</v>
       </c>
       <c r="N44" t="n">
-        <v>353.3564260667649</v>
+        <v>353.3564260667647</v>
       </c>
       <c r="O44" t="n">
         <v>333.6644531262893</v>
       </c>
       <c r="P44" t="n">
-        <v>284.7748911433362</v>
+        <v>284.7748911433364</v>
       </c>
       <c r="Q44" t="n">
         <v>213.8540835073059</v>
       </c>
       <c r="R44" t="n">
-        <v>124.3973244723716</v>
+        <v>124.3973244723711</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>36.48093109704801</v>
+        <v>36.480931097048</v>
       </c>
       <c r="J45" t="n">
         <v>100.1064632817211</v>
       </c>
       <c r="K45" t="n">
-        <v>77.83814466239559</v>
+        <v>171.0978904713396</v>
       </c>
       <c r="L45" t="n">
         <v>230.0622285298549</v>
@@ -38110,10 +38110,10 @@
         <v>275.5774182323375</v>
       </c>
       <c r="O45" t="n">
-        <v>252.0994992638934</v>
+        <v>252.0994992638932</v>
       </c>
       <c r="P45" t="n">
-        <v>202.3320736437295</v>
+        <v>109.0723278347857</v>
       </c>
       <c r="Q45" t="n">
         <v>135.2536329488516</v>
@@ -38174,31 +38174,31 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>150.2578054301523</v>
+        <v>62.80357799107168</v>
       </c>
       <c r="K46" t="n">
         <v>380.7393636322539</v>
       </c>
       <c r="L46" t="n">
-        <v>132.0675986197746</v>
+        <v>554.5018226278161</v>
       </c>
       <c r="M46" t="n">
-        <v>396.2726433084333</v>
+        <v>231.1843385216262</v>
       </c>
       <c r="N46" t="n">
-        <v>135.9357886490563</v>
+        <v>135.9357886490561</v>
       </c>
       <c r="O46" t="n">
-        <v>549.4670352136557</v>
+        <v>549.4670352136554</v>
       </c>
       <c r="P46" t="n">
-        <v>458.4542256803127</v>
+        <v>458.4542256803124</v>
       </c>
       <c r="Q46" t="n">
-        <v>244.2756132011791</v>
+        <v>74.38392141902568</v>
       </c>
       <c r="R46" t="n">
-        <v>18.73804352547266</v>
+        <v>18.73804352547265</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
